--- a/data/negative_signals/Disease - Total occurrences (B-to-X) - Goserelin - all categories.xlsx
+++ b/data/negative_signals/Disease - Total occurrences (B-to-X) - Goserelin - all categories.xlsx
@@ -93,178 +93,178 @@
     <t>tier01TripleInformation/8/predicateName</t>
   </si>
   <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>Chemicals &amp; Drugs</t>
+  </si>
+  <si>
+    <t>3371182</t>
+  </si>
+  <si>
+    <t>goserelin</t>
+  </si>
+  <si>
+    <t>89052690</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>5699144</t>
+  </si>
+  <si>
+    <t>ethanol</t>
+  </si>
+  <si>
+    <t>82886043</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>281434</t>
+  </si>
+  <si>
+    <t>estradiol</t>
+  </si>
+  <si>
+    <t>55310655</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>114911126</t>
+  </si>
+  <si>
+    <t>80393843</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>337859</t>
+  </si>
+  <si>
+    <t>progestins</t>
+  </si>
+  <si>
+    <t>55310542</t>
+  </si>
+  <si>
+    <t>57759316</t>
+  </si>
+  <si>
+    <t>57759419</t>
+  </si>
+  <si>
+    <t>4027945</t>
+  </si>
+  <si>
+    <t>lipids</t>
+  </si>
+  <si>
+    <t>125685005</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>308092</t>
+  </si>
+  <si>
+    <t>agonists</t>
+  </si>
+  <si>
+    <t>111534638</t>
+  </si>
+  <si>
+    <t>125963602</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>120763584</t>
+  </si>
+  <si>
+    <t>103966588</t>
+  </si>
+  <si>
+    <t>2954982</t>
+  </si>
+  <si>
+    <t>epidermal growth factor receptor</t>
+  </si>
+  <si>
+    <t>122632909</t>
+  </si>
+  <si>
+    <t>5698700</t>
+  </si>
+  <si>
+    <t>testosterone</t>
+  </si>
+  <si>
+    <t>116671067</t>
+  </si>
+  <si>
+    <t>91703250</t>
+  </si>
+  <si>
+    <t>72418984</t>
+  </si>
+  <si>
+    <t>117169161</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>95898117</t>
+  </si>
+  <si>
+    <t>produces</t>
+  </si>
+  <si>
+    <t>91702962</t>
+  </si>
+  <si>
+    <t>3811276</t>
+  </si>
+  <si>
+    <t>favor</t>
+  </si>
+  <si>
+    <t>87766627</t>
+  </si>
+  <si>
+    <t>78644671</t>
+  </si>
+  <si>
     <t>111931</t>
   </si>
   <si>
     <t>iron</t>
   </si>
   <si>
-    <t>Chemicals &amp; Drugs</t>
-  </si>
-  <si>
-    <t>3371182</t>
-  </si>
-  <si>
-    <t>goserelin</t>
-  </si>
-  <si>
-    <t>140872318</t>
+    <t>74405966</t>
   </si>
   <si>
     <t>does not use</t>
   </si>
   <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>155212517</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>5699144</t>
-  </si>
-  <si>
-    <t>ethanol</t>
-  </si>
-  <si>
-    <t>149312879</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>281434</t>
-  </si>
-  <si>
-    <t>estradiol</t>
-  </si>
-  <si>
-    <t>181115590</t>
-  </si>
-  <si>
-    <t>146778213</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>121701686</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>337859</t>
-  </si>
-  <si>
-    <t>progestins</t>
-  </si>
-  <si>
-    <t>121701608</t>
-  </si>
-  <si>
-    <t>124177779</t>
-  </si>
-  <si>
-    <t>124177695</t>
-  </si>
-  <si>
-    <t>4027945</t>
-  </si>
-  <si>
-    <t>lipids</t>
-  </si>
-  <si>
-    <t>191894895</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>308092</t>
-  </si>
-  <si>
-    <t>agonists</t>
-  </si>
-  <si>
-    <t>186907393</t>
-  </si>
-  <si>
-    <t>170073741</t>
-  </si>
-  <si>
-    <t>192152808</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>177660023</t>
-  </si>
-  <si>
-    <t>2954982</t>
-  </si>
-  <si>
-    <t>epidermal growth factor receptor</t>
-  </si>
-  <si>
-    <t>188776569</t>
-  </si>
-  <si>
-    <t>5698700</t>
-  </si>
-  <si>
-    <t>testosterone</t>
-  </si>
-  <si>
-    <t>138818676</t>
-  </si>
-  <si>
-    <t>157870413</t>
-  </si>
-  <si>
-    <t>182877814</t>
-  </si>
-  <si>
-    <t>183363407</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>162131042</t>
-  </si>
-  <si>
-    <t>produces</t>
-  </si>
-  <si>
-    <t>157870233</t>
-  </si>
-  <si>
-    <t>3811276</t>
-  </si>
-  <si>
-    <t>favor</t>
-  </si>
-  <si>
-    <t>145098245</t>
-  </si>
-  <si>
-    <t>154086742</t>
-  </si>
-  <si>
     <t>2979479</t>
   </si>
   <si>
     <t>estrogen receptor (homo sapiens)</t>
   </si>
   <si>
-    <t>197582717</t>
+    <t>131381741</t>
   </si>
   <si>
     <t>4035333</t>
@@ -273,19 +273,19 @@
     <t>estrogens</t>
   </si>
   <si>
-    <t>137458509</t>
+    <t>70967564</t>
   </si>
   <si>
     <t>is the same as</t>
   </si>
   <si>
-    <t>134356899</t>
-  </si>
-  <si>
-    <t>121735905</t>
-  </si>
-  <si>
-    <t>173493750</t>
+    <t>67870910</t>
+  </si>
+  <si>
+    <t>55366371</t>
+  </si>
+  <si>
+    <t>107305377</t>
   </si>
   <si>
     <t>does not stimulate</t>
@@ -297,10 +297,10 @@
     <t>doxorubicin</t>
   </si>
   <si>
-    <t>163027844</t>
-  </si>
-  <si>
-    <t>165949652</t>
+    <t>99714808</t>
+  </si>
+  <si>
+    <t>96791437</t>
   </si>
   <si>
     <t>89343</t>
@@ -309,22 +309,22 @@
     <t>tamoxifen</t>
   </si>
   <si>
-    <t>137752646</t>
-  </si>
-  <si>
-    <t>174768598</t>
-  </si>
-  <si>
-    <t>173494580</t>
-  </si>
-  <si>
-    <t>158909416</t>
-  </si>
-  <si>
-    <t>191894808</t>
-  </si>
-  <si>
-    <t>188470354</t>
+    <t>107306138</t>
+  </si>
+  <si>
+    <t>122255542</t>
+  </si>
+  <si>
+    <t>125684935</t>
+  </si>
+  <si>
+    <t>92722414</t>
+  </si>
+  <si>
+    <t>108644222</t>
+  </si>
+  <si>
+    <t>71269333</t>
   </si>
   <si>
     <t>4035121</t>
@@ -333,16 +333,16 @@
     <t>cyclophosphamide</t>
   </si>
   <si>
-    <t>161664081</t>
-  </si>
-  <si>
-    <t>161664115</t>
+    <t>115197010</t>
+  </si>
+  <si>
+    <t>95524535</t>
   </si>
   <si>
     <t>is higher than</t>
   </si>
   <si>
-    <t>181396005</t>
+    <t>95524499</t>
   </si>
   <si>
     <t>684453</t>
@@ -351,10 +351,10 @@
     <t>insulin-like growth factor i (homo sapiens)</t>
   </si>
   <si>
-    <t>160429280</t>
-  </si>
-  <si>
-    <t>160428484</t>
+    <t>94146528</t>
+  </si>
+  <si>
+    <t>94147308</t>
   </si>
   <si>
     <t>415721</t>
@@ -363,7 +363,7 @@
     <t>micrornas</t>
   </si>
   <si>
-    <t>193526903</t>
+    <t>127317633</t>
   </si>
   <si>
     <t>501498</t>
@@ -372,7 +372,7 @@
     <t>leptin (homo sapiens)</t>
   </si>
   <si>
-    <t>190976635</t>
+    <t>124836672</t>
   </si>
   <si>
     <t>3815644</t>
@@ -381,7 +381,7 @@
     <t>tyrosine</t>
   </si>
   <si>
-    <t>196055528</t>
+    <t>129866872</t>
   </si>
   <si>
     <t>324256</t>
@@ -390,7 +390,7 @@
     <t>androgens</t>
   </si>
   <si>
-    <t>158774264</t>
+    <t>92600046</t>
   </si>
   <si>
     <t>153796</t>
@@ -399,7 +399,7 @@
     <t>pharmacologic substance</t>
   </si>
   <si>
-    <t>131631386</t>
+    <t>65272026</t>
   </si>
   <si>
     <t>5211188</t>
@@ -408,7 +408,7 @@
     <t>antineoplastic agents</t>
   </si>
   <si>
-    <t>139466726</t>
+    <t>73087499</t>
   </si>
   <si>
     <t>4609829</t>
@@ -417,7 +417,7 @@
     <t>serine</t>
   </si>
   <si>
-    <t>196055577</t>
+    <t>129866933</t>
   </si>
   <si>
     <t>4041420</t>
@@ -426,10 +426,10 @@
     <t>diethylstilbestrol</t>
   </si>
   <si>
-    <t>148468219</t>
-  </si>
-  <si>
-    <t>148468284</t>
+    <t>81998130</t>
+  </si>
+  <si>
+    <t>81998071</t>
   </si>
   <si>
     <t>1979415</t>
@@ -438,19 +438,19 @@
     <t>gonadorelin</t>
   </si>
   <si>
-    <t>204161379</t>
+    <t>137964162</t>
   </si>
   <si>
     <t>is parent of</t>
   </si>
   <si>
-    <t>126899278</t>
-  </si>
-  <si>
-    <t>138369451</t>
-  </si>
-  <si>
-    <t>118104908</t>
+    <t>51877285</t>
+  </si>
+  <si>
+    <t>60492571</t>
+  </si>
+  <si>
+    <t>71979178</t>
   </si>
   <si>
     <t>327015</t>
@@ -459,7 +459,7 @@
     <t>clonidine</t>
   </si>
   <si>
-    <t>138314802</t>
+    <t>71925362</t>
   </si>
   <si>
     <t>824107</t>
@@ -468,13 +468,13 @@
     <t>menotropins</t>
   </si>
   <si>
-    <t>148675880</t>
-  </si>
-  <si>
-    <t>136750666</t>
-  </si>
-  <si>
-    <t>136609414</t>
+    <t>84174415</t>
+  </si>
+  <si>
+    <t>70355441</t>
+  </si>
+  <si>
+    <t>70112351</t>
   </si>
   <si>
     <t>3816020</t>
@@ -483,10 +483,10 @@
     <t>vitamin b 12</t>
   </si>
   <si>
-    <t>173467783</t>
-  </si>
-  <si>
-    <t>173468313</t>
+    <t>107246156</t>
+  </si>
+  <si>
+    <t>107245512</t>
   </si>
   <si>
     <t>3815230</t>
@@ -495,7 +495,7 @@
     <t>alteplase</t>
   </si>
   <si>
-    <t>149535621</t>
+    <t>83083673</t>
   </si>
   <si>
     <t>4035567</t>
@@ -504,16 +504,25 @@
     <t>flutamide</t>
   </si>
   <si>
-    <t>152467895</t>
-  </si>
-  <si>
-    <t>142695987</t>
-  </si>
-  <si>
-    <t>125434863</t>
-  </si>
-  <si>
-    <t>152467856</t>
+    <t>76309969</t>
+  </si>
+  <si>
+    <t>85995972</t>
+  </si>
+  <si>
+    <t>58989786</t>
+  </si>
+  <si>
+    <t>85996023</t>
+  </si>
+  <si>
+    <t>3761158</t>
+  </si>
+  <si>
+    <t>zoledronic acid</t>
+  </si>
+  <si>
+    <t>108994736</t>
   </si>
   <si>
     <t>141387</t>
@@ -522,7 +531,7 @@
     <t>gonadal steroid hormones</t>
   </si>
   <si>
-    <t>198171038</t>
+    <t>131960640</t>
   </si>
   <si>
     <t>4047536</t>
@@ -531,13 +540,13 @@
     <t>gonadotropins</t>
   </si>
   <si>
-    <t>118104241</t>
-  </si>
-  <si>
-    <t>144287815</t>
-  </si>
-  <si>
-    <t>149568773</t>
+    <t>77833357</t>
+  </si>
+  <si>
+    <t>51876673</t>
+  </si>
+  <si>
+    <t>83193461</t>
   </si>
   <si>
     <t>536159</t>
@@ -546,10 +555,10 @@
     <t>medroxyprogesterone acetate</t>
   </si>
   <si>
-    <t>166763080</t>
-  </si>
-  <si>
-    <t>120253705</t>
+    <t>100562666</t>
+  </si>
+  <si>
+    <t>53940257</t>
   </si>
   <si>
     <t>168831</t>
@@ -558,7 +567,7 @@
     <t>high density lipoprotein cholesterol</t>
   </si>
   <si>
-    <t>154086604</t>
+    <t>87766455</t>
   </si>
   <si>
     <t>4027069</t>
@@ -567,7 +576,7 @@
     <t>octreotide</t>
   </si>
   <si>
-    <t>152271952</t>
+    <t>85849131</t>
   </si>
   <si>
     <t>497638</t>
@@ -576,16 +585,16 @@
     <t>prostate-specific antigen (homo sapiens)</t>
   </si>
   <si>
-    <t>173610905</t>
-  </si>
-  <si>
-    <t>146150676</t>
-  </si>
-  <si>
-    <t>148187869</t>
-  </si>
-  <si>
-    <t>136693481</t>
+    <t>107390256</t>
+  </si>
+  <si>
+    <t>70340586</t>
+  </si>
+  <si>
+    <t>81813736</t>
+  </si>
+  <si>
+    <t>79669428</t>
   </si>
   <si>
     <t>3774942</t>
@@ -594,7 +603,7 @@
     <t>membrane receptor</t>
   </si>
   <si>
-    <t>197738780</t>
+    <t>131578045</t>
   </si>
   <si>
     <t>132840</t>
@@ -603,19 +612,10 @@
     <t>androstenedione</t>
   </si>
   <si>
-    <t>182877829</t>
-  </si>
-  <si>
-    <t>136609381</t>
-  </si>
-  <si>
-    <t>3761158</t>
-  </si>
-  <si>
-    <t>zoledronic acid</t>
-  </si>
-  <si>
-    <t>175223503</t>
+    <t>116671078</t>
+  </si>
+  <si>
+    <t>70112296</t>
   </si>
   <si>
     <t>2564782</t>
@@ -624,7 +624,7 @@
     <t>fulvestrant</t>
   </si>
   <si>
-    <t>189773526</t>
+    <t>123633692</t>
   </si>
   <si>
     <t>498289</t>
@@ -633,7 +633,7 @@
     <t>peptide hormone</t>
   </si>
   <si>
-    <t>155212474</t>
+    <t>89052665</t>
   </si>
   <si>
     <t>757172</t>
@@ -642,7 +642,7 @@
     <t>sex hormone-binding globulin (homo sapiens)</t>
   </si>
   <si>
-    <t>136609481</t>
+    <t>70112416</t>
   </si>
   <si>
     <t>4040740</t>
@@ -651,13 +651,13 @@
     <t>danazol</t>
   </si>
   <si>
-    <t>136096528</t>
-  </si>
-  <si>
-    <t>144288185</t>
-  </si>
-  <si>
-    <t>126186117</t>
+    <t>59747275</t>
+  </si>
+  <si>
+    <t>77833717</t>
+  </si>
+  <si>
+    <t>69610876</t>
   </si>
   <si>
     <t>374718</t>
@@ -666,7 +666,7 @@
     <t>cyproterone acetate</t>
   </si>
   <si>
-    <t>185886653</t>
+    <t>119677369</t>
   </si>
   <si>
     <t>3371111</t>
@@ -675,16 +675,16 @@
     <t>leuprolide</t>
   </si>
   <si>
-    <t>193191886</t>
-  </si>
-  <si>
-    <t>122729558</t>
-  </si>
-  <si>
-    <t>138818479</t>
-  </si>
-  <si>
-    <t>122726766</t>
+    <t>56218904</t>
+  </si>
+  <si>
+    <t>72418815</t>
+  </si>
+  <si>
+    <t>127041187</t>
+  </si>
+  <si>
+    <t>56216290</t>
   </si>
   <si>
     <t>836307</t>
@@ -693,10 +693,10 @@
     <t>mullerian-inhibiting hormone</t>
   </si>
   <si>
-    <t>198942026</t>
-  </si>
-  <si>
-    <t>198942256</t>
+    <t>132748690</t>
+  </si>
+  <si>
+    <t>132748468</t>
   </si>
   <si>
     <t>3211646</t>
@@ -705,16 +705,16 @@
     <t>gonadotropin-releasing hormone analog</t>
   </si>
   <si>
-    <t>142856486</t>
-  </si>
-  <si>
-    <t>117455551</t>
-  </si>
-  <si>
-    <t>148956181</t>
-  </si>
-  <si>
-    <t>164326505</t>
+    <t>76513752</t>
+  </si>
+  <si>
+    <t>82531187</t>
+  </si>
+  <si>
+    <t>51262759</t>
+  </si>
+  <si>
+    <t>98094395</t>
   </si>
   <si>
     <t>333058</t>
@@ -723,22 +723,22 @@
     <t>gonadotropin-releasing hormone receptor</t>
   </si>
   <si>
-    <t>138887551</t>
-  </si>
-  <si>
-    <t>204412826</t>
+    <t>138219616</t>
   </si>
   <si>
     <t>is modified by</t>
   </si>
   <si>
+    <t>72440559</t>
+  </si>
+  <si>
     <t>3761104</t>
   </si>
   <si>
     <t>letrozole</t>
   </si>
   <si>
-    <t>163863298</t>
+    <t>97628268</t>
   </si>
   <si>
     <t>148061</t>
@@ -747,13 +747,13 @@
     <t>bicalutamide</t>
   </si>
   <si>
-    <t>177348345</t>
-  </si>
-  <si>
-    <t>176050594</t>
-  </si>
-  <si>
-    <t>177348413</t>
+    <t>111120474</t>
+  </si>
+  <si>
+    <t>111120417</t>
+  </si>
+  <si>
+    <t>109825298</t>
   </si>
   <si>
     <t>4861753</t>
@@ -762,7 +762,7 @@
     <t>oral contraceptives, low-dose</t>
   </si>
   <si>
-    <t>140970169</t>
+    <t>74587347</t>
   </si>
   <si>
     <t>267253</t>
@@ -771,10 +771,10 @@
     <t>anastrozole</t>
   </si>
   <si>
-    <t>149367308</t>
-  </si>
-  <si>
-    <t>181115321</t>
+    <t>114910838</t>
+  </si>
+  <si>
+    <t>82983439</t>
   </si>
   <si>
     <t>3141975</t>
@@ -783,7 +783,7 @@
     <t>free testosterone</t>
   </si>
   <si>
-    <t>155097125</t>
+    <t>88904640</t>
   </si>
   <si>
     <t>4041881</t>
@@ -792,25 +792,25 @@
     <t>buserelin</t>
   </si>
   <si>
-    <t>150125951</t>
-  </si>
-  <si>
-    <t>150126925</t>
-  </si>
-  <si>
-    <t>138369617</t>
-  </si>
-  <si>
-    <t>204706613</t>
-  </si>
-  <si>
-    <t>204376493</t>
+    <t>83752413</t>
+  </si>
+  <si>
+    <t>83753335</t>
+  </si>
+  <si>
+    <t>57759522</t>
+  </si>
+  <si>
+    <t>138192964</t>
   </si>
   <si>
     <t>converts to</t>
   </si>
   <si>
-    <t>124177900</t>
+    <t>138536807</t>
+  </si>
+  <si>
+    <t>71979318</t>
   </si>
   <si>
     <t>494523</t>
@@ -819,7 +819,7 @@
     <t>estramustine phosphate</t>
   </si>
   <si>
-    <t>151032798</t>
+    <t>84658724</t>
   </si>
   <si>
     <t>105299</t>
@@ -828,7 +828,7 @@
     <t>dutasteride</t>
   </si>
   <si>
-    <t>199515278</t>
+    <t>133322364</t>
   </si>
   <si>
     <t>5284471</t>
@@ -837,7 +837,7 @@
     <t>formestane</t>
   </si>
   <si>
-    <t>137220308</t>
+    <t>70750496</t>
   </si>
   <si>
     <t>5229572</t>
@@ -846,19 +846,19 @@
     <t>zoladex</t>
   </si>
   <si>
-    <t>204376500</t>
-  </si>
-  <si>
-    <t>176670807</t>
-  </si>
-  <si>
-    <t>118988916</t>
-  </si>
-  <si>
-    <t>170745888</t>
-  </si>
-  <si>
-    <t>152467290</t>
+    <t>138192975</t>
+  </si>
+  <si>
+    <t>104548946</t>
+  </si>
+  <si>
+    <t>85995338</t>
+  </si>
+  <si>
+    <t>110442940</t>
+  </si>
+  <si>
+    <t>52708321</t>
   </si>
   <si>
     <t>236090</t>
@@ -867,7 +867,7 @@
     <t>degarelix</t>
   </si>
   <si>
-    <t>199123822</t>
+    <t>132930543</t>
   </si>
   <si>
     <t>2861391</t>
@@ -876,7 +876,7 @@
     <t>nonsteroidal anti-androgens</t>
   </si>
   <si>
-    <t>181693783</t>
+    <t>115487393</t>
   </si>
   <si>
     <t>2435708</t>
@@ -885,7 +885,7 @@
     <t>ici-118630</t>
   </si>
   <si>
-    <t>204706632</t>
+    <t>138536827</t>
   </si>
   <si>
     <t>4741356</t>
@@ -894,7 +894,7 @@
     <t>org 30276</t>
   </si>
   <si>
-    <t>136160594</t>
+    <t>69672076</t>
   </si>
   <si>
     <t>3174635</t>
@@ -903,7 +903,7 @@
     <t>goserelin 3.6 mg</t>
   </si>
   <si>
-    <t>204706703</t>
+    <t>138536889</t>
   </si>
   <si>
     <t>is ingredient of</t>
@@ -915,7 +915,7 @@
     <t>pituitary hormone suppressant</t>
   </si>
   <si>
-    <t>203887904</t>
+    <t>137701378</t>
   </si>
   <si>
     <t>3727416</t>
@@ -924,7 +924,7 @@
     <t>gonad regulating hormone</t>
   </si>
   <si>
-    <t>204456867</t>
+    <t>138272838</t>
   </si>
   <si>
     <t>3226554</t>
@@ -933,7 +933,7 @@
     <t>goserelin 10.8 mg</t>
   </si>
   <si>
-    <t>204706695</t>
+    <t>138536882</t>
   </si>
   <si>
     <t>3027634</t>
@@ -942,7 +942,7 @@
     <t>goserelin 3.6 mg drug implant [zoladex]</t>
   </si>
   <si>
-    <t>204376508</t>
+    <t>138192983</t>
   </si>
   <si>
     <t>2361978</t>
@@ -951,7 +951,7 @@
     <t>goserelin 10.8 mg drug implant [zoladex]</t>
   </si>
   <si>
-    <t>204376522</t>
+    <t>138192994</t>
   </si>
   <si>
     <t>2496071</t>
@@ -960,10 +960,10 @@
     <t>goserelin 10.8 mg drug implant</t>
   </si>
   <si>
-    <t>204376554</t>
-  </si>
-  <si>
-    <t>204376549</t>
+    <t>138193022</t>
+  </si>
+  <si>
+    <t>138193016</t>
   </si>
   <si>
     <t>2482034</t>
@@ -972,10 +972,10 @@
     <t>goserelin 3.6 mg drug implant</t>
   </si>
   <si>
-    <t>204376536</t>
-  </si>
-  <si>
-    <t>204376531</t>
+    <t>138193003</t>
+  </si>
+  <si>
+    <t>138193005</t>
   </si>
   <si>
     <t>3196558</t>
@@ -984,7 +984,7 @@
     <t>goserelin drug implant</t>
   </si>
   <si>
-    <t>204706713</t>
+    <t>138536898</t>
   </si>
   <si>
     <t>1829471</t>
@@ -993,7 +993,7 @@
     <t>goserelin drug implant product</t>
   </si>
   <si>
-    <t>204706802</t>
+    <t>138536981</t>
   </si>
   <si>
     <t>47573</t>
@@ -1005,13 +1005,13 @@
     <t>Anatomy</t>
   </si>
   <si>
-    <t>184705599</t>
+    <t>118509341</t>
   </si>
   <si>
     <t>disrupts</t>
   </si>
   <si>
-    <t>128975777</t>
+    <t>62523768</t>
   </si>
   <si>
     <t>affects</t>
@@ -1023,7 +1023,7 @@
     <t>ovary</t>
   </si>
   <si>
-    <t>173493707</t>
+    <t>107305321</t>
   </si>
   <si>
     <t>does not augment</t>
@@ -1035,7 +1035,7 @@
     <t>endometrium</t>
   </si>
   <si>
-    <t>182232253</t>
+    <t>116024929</t>
   </si>
   <si>
     <t>is part of</t>
@@ -1047,7 +1047,7 @@
     <t>blood</t>
   </si>
   <si>
-    <t>181590245</t>
+    <t>115393033</t>
   </si>
   <si>
     <t>is location of</t>
@@ -1059,10 +1059,10 @@
     <t>serum</t>
   </si>
   <si>
-    <t>140805974</t>
-  </si>
-  <si>
-    <t>122186763</t>
+    <t>55776093</t>
+  </si>
+  <si>
+    <t>74453735</t>
   </si>
   <si>
     <t>412266</t>
@@ -1071,7 +1071,7 @@
     <t>cultured cell line</t>
   </si>
   <si>
-    <t>124669170</t>
+    <t>58177968</t>
   </si>
   <si>
     <t>65077</t>
@@ -1080,7 +1080,7 @@
     <t>plasma</t>
   </si>
   <si>
-    <t>164880413</t>
+    <t>98681731</t>
   </si>
   <si>
     <t>235818</t>
@@ -1089,7 +1089,7 @@
     <t>breast</t>
   </si>
   <si>
-    <t>137869915</t>
+    <t>71460401</t>
   </si>
   <si>
     <t>2966355</t>
@@ -1098,7 +1098,7 @@
     <t>germinal epithelium</t>
   </si>
   <si>
-    <t>125434982</t>
+    <t>58989936</t>
   </si>
   <si>
     <t>1731240</t>
@@ -1110,7 +1110,7 @@
     <t>Genes &amp; Molecular Sequences</t>
   </si>
   <si>
-    <t>89170094</t>
+    <t>17475819</t>
   </si>
   <si>
     <t>2792624</t>
@@ -1119,7 +1119,7 @@
     <t>bcl2 (homo sapiens)</t>
   </si>
   <si>
-    <t>89061839</t>
+    <t>23036621</t>
   </si>
   <si>
     <t>2791472</t>
@@ -1128,7 +1128,7 @@
     <t>esr1 (homo sapiens)</t>
   </si>
   <si>
-    <t>85249887</t>
+    <t>19133285</t>
   </si>
   <si>
     <t>2791219</t>
@@ -1137,7 +1137,16 @@
     <t>klk3 (homo sapiens)</t>
   </si>
   <si>
-    <t>86018673</t>
+    <t>18605360</t>
+  </si>
+  <si>
+    <t>2791365</t>
+  </si>
+  <si>
+    <t>pgr (homo sapiens)</t>
+  </si>
+  <si>
+    <t>16975926</t>
   </si>
   <si>
     <t>1663376</t>
@@ -1146,16 +1155,7 @@
     <t>hsd11b1 (homo sapiens)</t>
   </si>
   <si>
-    <t>154086822</t>
-  </si>
-  <si>
-    <t>2791365</t>
-  </si>
-  <si>
-    <t>pgr (homo sapiens)</t>
-  </si>
-  <si>
-    <t>83341337</t>
+    <t>87766677</t>
   </si>
   <si>
     <t>2790960</t>
@@ -1164,7 +1164,7 @@
     <t>kat2b (homo sapiens)</t>
   </si>
   <si>
-    <t>173446674</t>
+    <t>107258836</t>
   </si>
   <si>
     <t>2790922</t>
@@ -1173,7 +1173,16 @@
     <t>gnrh1 (homo sapiens)</t>
   </si>
   <si>
-    <t>139028725</t>
+    <t>72639560</t>
+  </si>
+  <si>
+    <t>2788485</t>
+  </si>
+  <si>
+    <t>gnrhr (homo sapiens)</t>
+  </si>
+  <si>
+    <t>47010677</t>
   </si>
   <si>
     <t>3022798</t>
@@ -1182,16 +1191,7 @@
     <t>lhcgr (homo sapiens)</t>
   </si>
   <si>
-    <t>113254206</t>
-  </si>
-  <si>
-    <t>2788485</t>
-  </si>
-  <si>
-    <t>gnrhr (homo sapiens)</t>
-  </si>
-  <si>
-    <t>113254112</t>
+    <t>47010750</t>
   </si>
   <si>
     <t>670276</t>
@@ -1200,7 +1200,7 @@
     <t>pagr1 (homo sapiens)</t>
   </si>
   <si>
-    <t>149537997</t>
+    <t>83086113</t>
   </si>
   <si>
     <t>837423</t>
@@ -1212,46 +1212,46 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>134605580</t>
+    <t>81998477</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>68225563</t>
   </si>
   <si>
     <t>treats</t>
   </si>
   <si>
-    <t>148468665</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
     <t>4028709</t>
   </si>
   <si>
     <t>neoplasms</t>
   </si>
   <si>
-    <t>136750704</t>
+    <t>131577782</t>
+  </si>
+  <si>
+    <t>110266256</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>70355483</t>
   </si>
   <si>
     <t>does not affect</t>
   </si>
   <si>
-    <t>197738500</t>
-  </si>
-  <si>
-    <t>176490812</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
     <t>837405</t>
   </si>
   <si>
     <t>malignant neoplasms</t>
   </si>
   <si>
-    <t>133412889</t>
+    <t>67071209</t>
   </si>
   <si>
     <t>363213</t>
@@ -1260,22 +1260,22 @@
     <t>malignant neoplasm of breast</t>
   </si>
   <si>
-    <t>121735359</t>
-  </si>
-  <si>
-    <t>82439795</t>
-  </si>
-  <si>
-    <t>158908798</t>
+    <t>55366004</t>
+  </si>
+  <si>
+    <t>109457844</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>92721742</t>
   </si>
   <si>
     <t>does not treat</t>
   </si>
   <si>
-    <t>175680923</t>
-  </si>
-  <si>
-    <t>predisposes</t>
+    <t>16208377</t>
   </si>
   <si>
     <t>2727947</t>
@@ -1284,25 +1284,25 @@
     <t>malignant neoplasm of prostate</t>
   </si>
   <si>
-    <t>128975508</t>
-  </si>
-  <si>
-    <t>82439970</t>
-  </si>
-  <si>
-    <t>120921865</t>
-  </si>
-  <si>
-    <t>177348100</t>
+    <t>16208462</t>
+  </si>
+  <si>
+    <t>58192750</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>54554213</t>
+  </si>
+  <si>
+    <t>111120166</t>
   </si>
   <si>
     <t>is not associated with</t>
   </si>
   <si>
-    <t>124683813</t>
-  </si>
-  <si>
-    <t>augments</t>
+    <t>62523546</t>
   </si>
   <si>
     <t>4027047</t>
@@ -1311,10 +1311,10 @@
     <t>ovarian carcinoma</t>
   </si>
   <si>
-    <t>159421727</t>
-  </si>
-  <si>
-    <t>145136812</t>
+    <t>93223888</t>
+  </si>
+  <si>
+    <t>78651774</t>
   </si>
   <si>
     <t>3763651</t>
@@ -1323,10 +1323,10 @@
     <t>pancreatic carcinoma</t>
   </si>
   <si>
-    <t>140049273</t>
-  </si>
-  <si>
-    <t>139116478</t>
+    <t>73559310</t>
+  </si>
+  <si>
+    <t>72727582</t>
   </si>
   <si>
     <t>2802125</t>
@@ -1335,7 +1335,7 @@
     <t>malignant neoplasm of endometrium</t>
   </si>
   <si>
-    <t>183195559</t>
+    <t>117055930</t>
   </si>
   <si>
     <t>2940375</t>
@@ -1344,13 +1344,13 @@
     <t>symptoms</t>
   </si>
   <si>
-    <t>144288056</t>
-  </si>
-  <si>
-    <t>122036277</t>
-  </si>
-  <si>
-    <t>187274522</t>
+    <t>77833580</t>
+  </si>
+  <si>
+    <t>121128511</t>
+  </si>
+  <si>
+    <t>55665859</t>
   </si>
   <si>
     <t>5127262</t>
@@ -1359,7 +1359,7 @@
     <t>pain</t>
   </si>
   <si>
-    <t>186298906</t>
+    <t>120079589</t>
   </si>
   <si>
     <t>prevents</t>
@@ -1371,10 +1371,10 @@
     <t>carcinoma</t>
   </si>
   <si>
-    <t>144263053</t>
-  </si>
-  <si>
-    <t>121714384</t>
+    <t>55323466</t>
+  </si>
+  <si>
+    <t>77870586</t>
   </si>
   <si>
     <t>2967038</t>
@@ -1383,7 +1383,7 @@
     <t>hypersensitivity</t>
   </si>
   <si>
-    <t>131988872</t>
+    <t>65653916</t>
   </si>
   <si>
     <t>3131611</t>
@@ -1392,7 +1392,7 @@
     <t>observation parameter</t>
   </si>
   <si>
-    <t>151207174</t>
+    <t>84782058</t>
   </si>
   <si>
     <t>2395251</t>
@@ -1401,10 +1401,10 @@
     <t>toxic effect</t>
   </si>
   <si>
-    <t>121736385</t>
-  </si>
-  <si>
-    <t>183195053</t>
+    <t>117055420</t>
+  </si>
+  <si>
+    <t>55367136</t>
   </si>
   <si>
     <t>444020</t>
@@ -1413,10 +1413,10 @@
     <t>neoplasm metastasis</t>
   </si>
   <si>
-    <t>163819593</t>
-  </si>
-  <si>
-    <t>117567933</t>
+    <t>51370890</t>
+  </si>
+  <si>
+    <t>97621407</t>
   </si>
   <si>
     <t>2506281</t>
@@ -1425,16 +1425,16 @@
     <t>adverse effects</t>
   </si>
   <si>
-    <t>183543029</t>
-  </si>
-  <si>
-    <t>120198477</t>
-  </si>
-  <si>
-    <t>118908998</t>
-  </si>
-  <si>
-    <t>170746180</t>
+    <t>52674572</t>
+  </si>
+  <si>
+    <t>117345405</t>
+  </si>
+  <si>
+    <t>104549196</t>
+  </si>
+  <si>
+    <t>53886839</t>
   </si>
   <si>
     <t>1788696</t>
@@ -1443,7 +1443,7 @@
     <t>alzheimer's disease</t>
   </si>
   <si>
-    <t>82439761</t>
+    <t>16208362</t>
   </si>
   <si>
     <t>4048474</t>
@@ -1452,7 +1452,7 @@
     <t>hemorrhage</t>
   </si>
   <si>
-    <t>148468404</t>
+    <t>81998241</t>
   </si>
   <si>
     <t>2972331</t>
@@ -1461,7 +1461,7 @@
     <t>protection</t>
   </si>
   <si>
-    <t>148185894</t>
+    <t>81766966</t>
   </si>
   <si>
     <t>356203</t>
@@ -1470,7 +1470,7 @@
     <t>asthenia</t>
   </si>
   <si>
-    <t>176307612</t>
+    <t>110097960</t>
   </si>
   <si>
     <t>836618</t>
@@ -1479,7 +1479,7 @@
     <t>mammary neoplasms</t>
   </si>
   <si>
-    <t>82439791</t>
+    <t>16208376</t>
   </si>
   <si>
     <t>4040830</t>
@@ -1488,7 +1488,7 @@
     <t>abnormal degeneration</t>
   </si>
   <si>
-    <t>198172725</t>
+    <t>131962124</t>
   </si>
   <si>
     <t>3733169</t>
@@ -1497,7 +1497,7 @@
     <t>infiltration</t>
   </si>
   <si>
-    <t>131202290</t>
+    <t>64849653</t>
   </si>
   <si>
     <t>5699005</t>
@@ -1506,7 +1506,7 @@
     <t>falls</t>
   </si>
   <si>
-    <t>182877717</t>
+    <t>116670963</t>
   </si>
   <si>
     <t>803725</t>
@@ -1515,7 +1515,7 @@
     <t>presenile dementia</t>
   </si>
   <si>
-    <t>82439759</t>
+    <t>16208361</t>
   </si>
   <si>
     <t>4048874</t>
@@ -1524,7 +1524,7 @@
     <t>nausea</t>
   </si>
   <si>
-    <t>150127275</t>
+    <t>83753727</t>
   </si>
   <si>
     <t>831311</t>
@@ -1533,7 +1533,7 @@
     <t>infertility</t>
   </si>
   <si>
-    <t>181360740</t>
+    <t>115232512</t>
   </si>
   <si>
     <t>437699</t>
@@ -1542,31 +1542,31 @@
     <t>hepatitis</t>
   </si>
   <si>
-    <t>82439903</t>
+    <t>16208430</t>
   </si>
   <si>
     <t>indicates</t>
   </si>
   <si>
+    <t>3773320</t>
+  </si>
+  <si>
+    <t>memory impairment</t>
+  </si>
+  <si>
+    <t>16208450</t>
+  </si>
+  <si>
     <t>2455228</t>
   </si>
   <si>
     <t>prostate carcinoma</t>
   </si>
   <si>
-    <t>158511982</t>
-  </si>
-  <si>
-    <t>131981832</t>
-  </si>
-  <si>
-    <t>3773320</t>
-  </si>
-  <si>
-    <t>memory impairment</t>
-  </si>
-  <si>
-    <t>82439945</t>
+    <t>65646863</t>
+  </si>
+  <si>
+    <t>92325643</t>
   </si>
   <si>
     <t>3815520</t>
@@ -1575,7 +1575,7 @@
     <t>prostatic neoplasms</t>
   </si>
   <si>
-    <t>82439968</t>
+    <t>16208461</t>
   </si>
   <si>
     <t>235450</t>
@@ -1584,7 +1584,16 @@
     <t>amnesia</t>
   </si>
   <si>
-    <t>82439939</t>
+    <t>16208447</t>
+  </si>
+  <si>
+    <t>5257961</t>
+  </si>
+  <si>
+    <t>psychotic disorders</t>
+  </si>
+  <si>
+    <t>104510372</t>
   </si>
   <si>
     <t>4035141</t>
@@ -1593,19 +1602,10 @@
     <t>endometriosis</t>
   </si>
   <si>
-    <t>129664297</t>
-  </si>
-  <si>
-    <t>82439863</t>
-  </si>
-  <si>
-    <t>5257961</t>
-  </si>
-  <si>
-    <t>psychotic disorders</t>
-  </si>
-  <si>
-    <t>170724115</t>
+    <t>16208411</t>
+  </si>
+  <si>
+    <t>63196957</t>
   </si>
   <si>
     <t>250769</t>
@@ -1614,13 +1614,13 @@
     <t>osteopenia</t>
   </si>
   <si>
-    <t>133219122</t>
-  </si>
-  <si>
-    <t>180039198</t>
-  </si>
-  <si>
-    <t>163884731</t>
+    <t>113865010</t>
+  </si>
+  <si>
+    <t>97650458</t>
+  </si>
+  <si>
+    <t>66883184</t>
   </si>
   <si>
     <t>3761683</t>
@@ -1629,7 +1629,7 @@
     <t>erectile dysfunction</t>
   </si>
   <si>
-    <t>159777107</t>
+    <t>93609876</t>
   </si>
   <si>
     <t>3814707</t>
@@ -1638,7 +1638,7 @@
     <t>swelling</t>
   </si>
   <si>
-    <t>150127204</t>
+    <t>83753680</t>
   </si>
   <si>
     <t>4048344</t>
@@ -1647,7 +1647,7 @@
     <t>granuloma</t>
   </si>
   <si>
-    <t>145426875</t>
+    <t>79024312</t>
   </si>
   <si>
     <t>784403</t>
@@ -1656,7 +1656,7 @@
     <t>mammary carcinoma, human</t>
   </si>
   <si>
-    <t>82439793</t>
+    <t>16208378</t>
   </si>
   <si>
     <t>2634921</t>
@@ -1665,10 +1665,10 @@
     <t>epithelial ovarian cancer</t>
   </si>
   <si>
-    <t>160405843</t>
-  </si>
-  <si>
-    <t>159422967</t>
+    <t>94121729</t>
+  </si>
+  <si>
+    <t>93225051</t>
   </si>
   <si>
     <t>5796881</t>
@@ -1677,10 +1677,10 @@
     <t>secondary malignant neoplasm of lung, nos</t>
   </si>
   <si>
-    <t>182698644</t>
-  </si>
-  <si>
-    <t>182700101</t>
+    <t>116563183</t>
+  </si>
+  <si>
+    <t>116561744</t>
   </si>
   <si>
     <t>2875132</t>
@@ -1689,7 +1689,7 @@
     <t>polycystic ovary syndrome</t>
   </si>
   <si>
-    <t>171624832</t>
+    <t>105513601</t>
   </si>
   <si>
     <t>4027719</t>
@@ -1698,10 +1698,10 @@
     <t>fibroid tumor</t>
   </si>
   <si>
-    <t>182123502</t>
-  </si>
-  <si>
-    <t>82439918</t>
+    <t>16208437</t>
+  </si>
+  <si>
+    <t>115986567</t>
   </si>
   <si>
     <t>368878</t>
@@ -1710,7 +1710,7 @@
     <t>mammary neoplasms, human</t>
   </si>
   <si>
-    <t>82439797</t>
+    <t>16208379</t>
   </si>
   <si>
     <t>469798</t>
@@ -1719,7 +1719,7 @@
     <t>cognition disorders</t>
   </si>
   <si>
-    <t>82439836</t>
+    <t>16208398</t>
   </si>
   <si>
     <t>2518770</t>
@@ -1728,10 +1728,10 @@
     <t>advanced cancer</t>
   </si>
   <si>
-    <t>140419071</t>
-  </si>
-  <si>
-    <t>120894445</t>
+    <t>54529744</t>
+  </si>
+  <si>
+    <t>73928900</t>
   </si>
   <si>
     <t>347140</t>
@@ -1740,7 +1740,16 @@
     <t>hepatic encephalopathy</t>
   </si>
   <si>
-    <t>82439886</t>
+    <t>16208422</t>
+  </si>
+  <si>
+    <t>4047906</t>
+  </si>
+  <si>
+    <t>memory disorders</t>
+  </si>
+  <si>
+    <t>16208448</t>
   </si>
   <si>
     <t>3815387</t>
@@ -1749,7 +1758,7 @@
     <t>pituitary adenoma</t>
   </si>
   <si>
-    <t>197663153</t>
+    <t>131463387</t>
   </si>
   <si>
     <t>5079644</t>
@@ -1758,25 +1767,16 @@
     <t>uterine fibroids</t>
   </si>
   <si>
-    <t>123081556</t>
-  </si>
-  <si>
-    <t>82439920</t>
-  </si>
-  <si>
-    <t>121414207</t>
-  </si>
-  <si>
-    <t>124027744</t>
-  </si>
-  <si>
-    <t>4047906</t>
-  </si>
-  <si>
-    <t>memory disorders</t>
-  </si>
-  <si>
-    <t>82439941</t>
+    <t>58691849</t>
+  </si>
+  <si>
+    <t>57615574</t>
+  </si>
+  <si>
+    <t>56681759</t>
+  </si>
+  <si>
+    <t>16208438</t>
   </si>
   <si>
     <t>3743154</t>
@@ -1785,7 +1785,7 @@
     <t>carcinoma breast stage iv</t>
   </si>
   <si>
-    <t>140910810</t>
+    <t>74479537</t>
   </si>
   <si>
     <t>727259</t>
@@ -1794,13 +1794,13 @@
     <t>endocrine system diseases</t>
   </si>
   <si>
-    <t>195524476</t>
-  </si>
-  <si>
-    <t>159776967</t>
-  </si>
-  <si>
-    <t>189228824</t>
+    <t>93609664</t>
+  </si>
+  <si>
+    <t>123084886</t>
+  </si>
+  <si>
+    <t>129369283</t>
   </si>
   <si>
     <t>5796907</t>
@@ -1809,7 +1809,7 @@
     <t>secondary malignant neoplasm of bone, nos</t>
   </si>
   <si>
-    <t>172381778</t>
+    <t>106187865</t>
   </si>
   <si>
     <t>239947</t>
@@ -1818,7 +1818,7 @@
     <t>age-related memory disorders</t>
   </si>
   <si>
-    <t>82439949</t>
+    <t>16208452</t>
   </si>
   <si>
     <t>2441034</t>
@@ -1827,7 +1827,7 @@
     <t>memory disorder, semantic</t>
   </si>
   <si>
-    <t>82439943</t>
+    <t>16208449</t>
   </si>
   <si>
     <t>322759</t>
@@ -1836,7 +1836,7 @@
     <t>memory disorder, spatial</t>
   </si>
   <si>
-    <t>82439947</t>
+    <t>16208451</t>
   </si>
   <si>
     <t>4811239</t>
@@ -1845,7 +1845,7 @@
     <t>overinclusion</t>
   </si>
   <si>
-    <t>82439838</t>
+    <t>16208399</t>
   </si>
   <si>
     <t>4028734</t>
@@ -1854,7 +1854,7 @@
     <t>metrorrhagia</t>
   </si>
   <si>
-    <t>144288815</t>
+    <t>77834342</t>
   </si>
   <si>
     <t>3141707</t>
@@ -1863,7 +1863,7 @@
     <t>no status change</t>
   </si>
   <si>
-    <t>140070975</t>
+    <t>73580469</t>
   </si>
   <si>
     <t>4028774</t>
@@ -1872,7 +1872,7 @@
     <t>myocardial reperfusion injury</t>
   </si>
   <si>
-    <t>170621055</t>
+    <t>104417285</t>
   </si>
   <si>
     <t>5229143</t>
@@ -1881,7 +1881,7 @@
     <t>iron deficiency anemia</t>
   </si>
   <si>
-    <t>138575208</t>
+    <t>72185700</t>
   </si>
   <si>
     <t>4049057</t>
@@ -1890,7 +1890,7 @@
     <t>irritable mood</t>
   </si>
   <si>
-    <t>150127117</t>
+    <t>83753590</t>
   </si>
   <si>
     <t>2406189</t>
@@ -1899,7 +1899,7 @@
     <t>advanced disease</t>
   </si>
   <si>
-    <t>148259670</t>
+    <t>81836174</t>
   </si>
   <si>
     <t>4783414</t>
@@ -1908,10 +1908,10 @@
     <t>amenorrhea</t>
   </si>
   <si>
-    <t>157002101</t>
-  </si>
-  <si>
-    <t>193733662</t>
+    <t>90811420</t>
+  </si>
+  <si>
+    <t>127524800</t>
   </si>
   <si>
     <t>2546358</t>
@@ -1920,16 +1920,16 @@
     <t>prostate cancer metastatic</t>
   </si>
   <si>
-    <t>142304682</t>
-  </si>
-  <si>
-    <t>176986789</t>
-  </si>
-  <si>
-    <t>144230209</t>
-  </si>
-  <si>
-    <t>134256737</t>
+    <t>67849265</t>
+  </si>
+  <si>
+    <t>77749275</t>
+  </si>
+  <si>
+    <t>110756696</t>
+  </si>
+  <si>
+    <t>75916628</t>
   </si>
   <si>
     <t>3371255</t>
@@ -1938,7 +1938,7 @@
     <t>congestion, nos</t>
   </si>
   <si>
-    <t>143571865</t>
+    <t>77184684</t>
   </si>
   <si>
     <t>4048571</t>
@@ -1947,7 +1947,16 @@
     <t>hepatic coma</t>
   </si>
   <si>
-    <t>82439888</t>
+    <t>16208423</t>
+  </si>
+  <si>
+    <t>454646</t>
+  </si>
+  <si>
+    <t>precocious puberty</t>
+  </si>
+  <si>
+    <t>65648875</t>
   </si>
   <si>
     <t>3372491</t>
@@ -1956,16 +1965,7 @@
     <t>myocardium; injury</t>
   </si>
   <si>
-    <t>170621699</t>
-  </si>
-  <si>
-    <t>454646</t>
-  </si>
-  <si>
-    <t>precocious puberty</t>
-  </si>
-  <si>
-    <t>131983852</t>
+    <t>104418074</t>
   </si>
   <si>
     <t>223402</t>
@@ -1974,7 +1974,7 @@
     <t>endometriosis of uterus</t>
   </si>
   <si>
-    <t>82439867</t>
+    <t>16208413</t>
   </si>
   <si>
     <t>777283</t>
@@ -1983,7 +1983,7 @@
     <t>premature menopause</t>
   </si>
   <si>
-    <t>139615518</t>
+    <t>73235434</t>
   </si>
   <si>
     <t>2440031</t>
@@ -1992,7 +1992,7 @@
     <t>encounter due to in vitro fertilization</t>
   </si>
   <si>
-    <t>139213530</t>
+    <t>72732070</t>
   </si>
   <si>
     <t>503772</t>
@@ -2001,7 +2001,7 @@
     <t>endometrioma</t>
   </si>
   <si>
-    <t>82439865</t>
+    <t>16208412</t>
   </si>
   <si>
     <t>2965028</t>
@@ -2010,7 +2010,7 @@
     <t>flare</t>
   </si>
   <si>
-    <t>191531984</t>
+    <t>125342890</t>
   </si>
   <si>
     <t>529477</t>
@@ -2019,7 +2019,7 @@
     <t>alzheimer disease, late onset</t>
   </si>
   <si>
-    <t>82439757</t>
+    <t>16208360</t>
   </si>
   <si>
     <t>300430</t>
@@ -2028,7 +2028,7 @@
     <t>ovarian cysts</t>
   </si>
   <si>
-    <t>119987365</t>
+    <t>53655981</t>
   </si>
   <si>
     <t>362529</t>
@@ -2037,7 +2037,7 @@
     <t>premenstrual syndrome</t>
   </si>
   <si>
-    <t>131644973</t>
+    <t>65286214</t>
   </si>
   <si>
     <t>3084367</t>
@@ -2046,7 +2046,7 @@
     <t>recurrent carcinoma</t>
   </si>
   <si>
-    <t>120895372</t>
+    <t>54530534</t>
   </si>
   <si>
     <t>3745606</t>
@@ -2055,7 +2055,7 @@
     <t>familial alzheimer disease (fad)</t>
   </si>
   <si>
-    <t>82439765</t>
+    <t>16208364</t>
   </si>
   <si>
     <t>2441410</t>
@@ -2064,7 +2064,7 @@
     <t>fulminant hepatic failure with cerebral edema</t>
   </si>
   <si>
-    <t>82439884</t>
+    <t>16208421</t>
   </si>
   <si>
     <t>2440985</t>
@@ -2073,7 +2073,7 @@
     <t>hepatic stupor</t>
   </si>
   <si>
-    <t>82439890</t>
+    <t>16208424</t>
   </si>
   <si>
     <t>610432</t>
@@ -2082,7 +2082,16 @@
     <t>alzheimer disease, early onset</t>
   </si>
   <si>
-    <t>82439753</t>
+    <t>16208358</t>
+  </si>
+  <si>
+    <t>803968</t>
+  </si>
+  <si>
+    <t>hirsutism</t>
+  </si>
+  <si>
+    <t>88904829</t>
   </si>
   <si>
     <t>4887126</t>
@@ -2091,19 +2100,10 @@
     <t>pelvic pain</t>
   </si>
   <si>
-    <t>140970231</t>
-  </si>
-  <si>
-    <t>135639891</t>
-  </si>
-  <si>
-    <t>803968</t>
-  </si>
-  <si>
-    <t>hirsutism</t>
-  </si>
-  <si>
-    <t>155097330</t>
+    <t>74587409</t>
+  </si>
+  <si>
+    <t>69150564</t>
   </si>
   <si>
     <t>724358</t>
@@ -2112,10 +2112,10 @@
     <t>female genital diseases</t>
   </si>
   <si>
-    <t>144287915</t>
-  </si>
-  <si>
-    <t>167638915</t>
+    <t>77833434</t>
+  </si>
+  <si>
+    <t>101438779</t>
   </si>
   <si>
     <t>773537</t>
@@ -2124,7 +2124,7 @@
     <t>skin manifestations</t>
   </si>
   <si>
-    <t>166942445</t>
+    <t>100740413</t>
   </si>
   <si>
     <t>2454960</t>
@@ -2133,7 +2133,7 @@
     <t>hot flushes</t>
   </si>
   <si>
-    <t>82439910</t>
+    <t>16208433</t>
   </si>
   <si>
     <t>2411332</t>
@@ -2142,7 +2142,7 @@
     <t>pain score</t>
   </si>
   <si>
-    <t>174864931</t>
+    <t>108672582</t>
   </si>
   <si>
     <t>2634790</t>
@@ -2151,10 +2151,10 @@
     <t>locally advanced malignant neoplasm</t>
   </si>
   <si>
-    <t>151609020</t>
-  </si>
-  <si>
-    <t>158082573</t>
+    <t>91903506</t>
+  </si>
+  <si>
+    <t>85237402</t>
   </si>
   <si>
     <t>4838441</t>
@@ -2163,7 +2163,7 @@
     <t>uterine hemorrhage</t>
   </si>
   <si>
-    <t>138575122</t>
+    <t>72185614</t>
   </si>
   <si>
     <t>255949</t>
@@ -2172,7 +2172,7 @@
     <t>hyperandrogenism</t>
   </si>
   <si>
-    <t>155097245</t>
+    <t>88904736</t>
   </si>
   <si>
     <t>709107</t>
@@ -2181,7 +2181,7 @@
     <t>alzheimer's disease, focal onset</t>
   </si>
   <si>
-    <t>82439755</t>
+    <t>16208359</t>
   </si>
   <si>
     <t>49554</t>
@@ -2190,7 +2190,7 @@
     <t>acute confusional senile dementia</t>
   </si>
   <si>
-    <t>82439763</t>
+    <t>16208363</t>
   </si>
   <si>
     <t>2394090</t>
@@ -2199,7 +2199,7 @@
     <t>lower urinary tract symptoms</t>
   </si>
   <si>
-    <t>199123851</t>
+    <t>132930577</t>
   </si>
   <si>
     <t>3763722</t>
@@ -2208,7 +2208,7 @@
     <t>physiological sexual disorders</t>
   </si>
   <si>
-    <t>82440042</t>
+    <t>16208496</t>
   </si>
   <si>
     <t>5074524</t>
@@ -2217,7 +2217,7 @@
     <t>virilism</t>
   </si>
   <si>
-    <t>170083929</t>
+    <t>103976616</t>
   </si>
   <si>
     <t>2968683</t>
@@ -2226,7 +2226,7 @@
     <t>partial response</t>
   </si>
   <si>
-    <t>150155197</t>
+    <t>83777401</t>
   </si>
   <si>
     <t>165342</t>
@@ -2235,10 +2235,10 @@
     <t>lymphangioleiomyomatosis</t>
   </si>
   <si>
-    <t>151192312</t>
-  </si>
-  <si>
-    <t>151190640</t>
+    <t>84738370</t>
+  </si>
+  <si>
+    <t>84736738</t>
   </si>
   <si>
     <t>5154132</t>
@@ -2247,7 +2247,7 @@
     <t>tumor lysis syndrome</t>
   </si>
   <si>
-    <t>82440049</t>
+    <t>16208499</t>
   </si>
   <si>
     <t>3066716</t>
@@ -2256,7 +2256,7 @@
     <t>injury of artery, nos</t>
   </si>
   <si>
-    <t>157964970</t>
+    <t>91797287</t>
   </si>
   <si>
     <t>3766350</t>
@@ -2265,7 +2265,7 @@
     <t>menopausal symptom, nos</t>
   </si>
   <si>
-    <t>187147985</t>
+    <t>121004403</t>
   </si>
   <si>
     <t>3375433</t>
@@ -2274,7 +2274,7 @@
     <t>ovarian failure</t>
   </si>
   <si>
-    <t>191100493</t>
+    <t>124910791</t>
   </si>
   <si>
     <t>6117486</t>
@@ -2283,7 +2283,7 @@
     <t>obstructive nephropathy, nos</t>
   </si>
   <si>
-    <t>140805258</t>
+    <t>74453099</t>
   </si>
   <si>
     <t>5645617</t>
@@ -2292,7 +2292,7 @@
     <t>familial benign pemphigus</t>
   </si>
   <si>
-    <t>120637832</t>
+    <t>54247606</t>
   </si>
   <si>
     <t>587842</t>
@@ -2301,7 +2301,7 @@
     <t>mastodynia</t>
   </si>
   <si>
-    <t>122036055</t>
+    <t>55665310</t>
   </si>
   <si>
     <t>3358655</t>
@@ -2310,10 +2310,10 @@
     <t>vasomotor symptom</t>
   </si>
   <si>
-    <t>136096400</t>
-  </si>
-  <si>
-    <t>151207244</t>
+    <t>69610770</t>
+  </si>
+  <si>
+    <t>84782106</t>
   </si>
   <si>
     <t>3762623</t>
@@ -2322,7 +2322,7 @@
     <t>endometriosis of pelvis, nos</t>
   </si>
   <si>
-    <t>136493841</t>
+    <t>69997811</t>
   </si>
   <si>
     <t>3058537</t>
@@ -2331,7 +2331,7 @@
     <t>precocious puberty, central</t>
   </si>
   <si>
-    <t>174984611</t>
+    <t>108773999</t>
   </si>
   <si>
     <t>3067346</t>
@@ -2340,7 +2340,7 @@
     <t>pituitary macroadenoma</t>
   </si>
   <si>
-    <t>162430028</t>
+    <t>96299749</t>
   </si>
   <si>
     <t>2514239</t>
@@ -2349,7 +2349,7 @@
     <t>pancreatic carcinoma non-resectable</t>
   </si>
   <si>
-    <t>161283174</t>
+    <t>95013379</t>
   </si>
   <si>
     <t>3743134</t>
@@ -2358,7 +2358,7 @@
     <t>breast cancer stage ii</t>
   </si>
   <si>
-    <t>161193592</t>
+    <t>95019073</t>
   </si>
   <si>
     <t>3732391</t>
@@ -2367,7 +2367,7 @@
     <t>adenomatous hyperplasia</t>
   </si>
   <si>
-    <t>149486282</t>
+    <t>83111009</t>
   </si>
   <si>
     <t>3739324</t>
@@ -2376,7 +2376,7 @@
     <t>recurrent endometrial cancer</t>
   </si>
   <si>
-    <t>183193185</t>
+    <t>117053425</t>
   </si>
   <si>
     <t>2609581</t>
@@ -2385,7 +2385,7 @@
     <t>pancreatic adenocarcinoma metastatic</t>
   </si>
   <si>
-    <t>136750413</t>
+    <t>70355204</t>
   </si>
   <si>
     <t>2860794</t>
@@ -2394,7 +2394,7 @@
     <t>male-to-female transsexual (finding)</t>
   </si>
   <si>
-    <t>190674687</t>
+    <t>124469159</t>
   </si>
   <si>
     <t>753481</t>
@@ -2403,7 +2403,7 @@
     <t>endometrial stromal tumors</t>
   </si>
   <si>
-    <t>128391076</t>
+    <t>62006234</t>
   </si>
   <si>
     <t>3192665</t>
@@ -2412,7 +2412,7 @@
     <t>metastasizing leiomyoma</t>
   </si>
   <si>
-    <t>130301106</t>
+    <t>63823690</t>
   </si>
   <si>
     <t>3119796</t>
@@ -2421,7 +2421,7 @@
     <t>size of the uterus</t>
   </si>
   <si>
-    <t>123081956</t>
+    <t>56682255</t>
   </si>
   <si>
     <t>3742339</t>
@@ -2430,10 +2430,10 @@
     <t>stage iv prostate carcinoma</t>
   </si>
   <si>
-    <t>134874251</t>
-  </si>
-  <si>
-    <t>133759167</t>
+    <t>68488920</t>
+  </si>
+  <si>
+    <t>67274585</t>
   </si>
   <si>
     <t>3125611</t>
@@ -2442,7 +2442,7 @@
     <t>pricking pain</t>
   </si>
   <si>
-    <t>150955443</t>
+    <t>84504817</t>
   </si>
   <si>
     <t>3111326</t>
@@ -2451,7 +2451,19 @@
     <t>injection site disorder, nos</t>
   </si>
   <si>
-    <t>149635741</t>
+    <t>83214466</t>
+  </si>
+  <si>
+    <t>430705</t>
+  </si>
+  <si>
+    <t>phosphorylation</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>132748600</t>
   </si>
   <si>
     <t>84764</t>
@@ -2460,13 +2472,10 @@
     <t>growth</t>
   </si>
   <si>
-    <t>Physiology</t>
-  </si>
-  <si>
-    <t>163345690</t>
-  </si>
-  <si>
-    <t>141347487</t>
+    <t>97147638</t>
+  </si>
+  <si>
+    <t>74881761</t>
   </si>
   <si>
     <t>2424024</t>
@@ -2475,16 +2484,7 @@
     <t>cell proliferation</t>
   </si>
   <si>
-    <t>198942105</t>
-  </si>
-  <si>
-    <t>430705</t>
-  </si>
-  <si>
-    <t>phosphorylation</t>
-  </si>
-  <si>
-    <t>198942160</t>
+    <t>132748553</t>
   </si>
   <si>
     <t>638762</t>
@@ -2493,7 +2493,7 @@
     <t>cell growth</t>
   </si>
   <si>
-    <t>184704442</t>
+    <t>118508183</t>
   </si>
   <si>
     <t>4033936</t>
@@ -2502,10 +2502,10 @@
     <t>down-regulation</t>
   </si>
   <si>
-    <t>165619906</t>
-  </si>
-  <si>
-    <t>120983920</t>
+    <t>54633563</t>
+  </si>
+  <si>
+    <t>99404142</t>
   </si>
   <si>
     <t>5103130</t>
@@ -2514,10 +2514,10 @@
     <t>bone density</t>
   </si>
   <si>
-    <t>144836276</t>
-  </si>
-  <si>
-    <t>163830547</t>
+    <t>78442538</t>
+  </si>
+  <si>
+    <t>97596588</t>
   </si>
   <si>
     <t>2397233</t>
@@ -2526,7 +2526,7 @@
     <t>steroid biosynthesis</t>
   </si>
   <si>
-    <t>134098038</t>
+    <t>70345941</t>
   </si>
   <si>
     <t>783546</t>
@@ -2535,7 +2535,7 @@
     <t>menstrual cycle</t>
   </si>
   <si>
-    <t>191044241</t>
+    <t>124854289</t>
   </si>
   <si>
     <t>634847</t>
@@ -2544,7 +2544,7 @@
     <t>hormone secretion</t>
   </si>
   <si>
-    <t>141519151</t>
+    <t>75082445</t>
   </si>
   <si>
     <t>768076</t>
@@ -2553,7 +2553,7 @@
     <t>protein secretion</t>
   </si>
   <si>
-    <t>184706569</t>
+    <t>118510223</t>
   </si>
   <si>
     <t>3782838</t>
@@ -2562,7 +2562,7 @@
     <t>sexual function, nos</t>
   </si>
   <si>
-    <t>166763779</t>
+    <t>100563243</t>
   </si>
   <si>
     <t>4866893</t>
@@ -2571,7 +2571,7 @@
     <t>puberty</t>
   </si>
   <si>
-    <t>177209734</t>
+    <t>111088752</t>
   </si>
   <si>
     <t>2633108</t>
@@ -2580,10 +2580,10 @@
     <t>ovarian function</t>
   </si>
   <si>
-    <t>131184230</t>
-  </si>
-  <si>
-    <t>181759347</t>
+    <t>64744426</t>
+  </si>
+  <si>
+    <t>115536171</t>
   </si>
   <si>
     <t>3242189</t>
@@ -2592,7 +2592,7 @@
     <t>cytokine production</t>
   </si>
   <si>
-    <t>181104379</t>
+    <t>114972915</t>
   </si>
   <si>
     <t>2633206</t>
@@ -2601,7 +2601,7 @@
     <t>hypothalamus hypophysis axis</t>
   </si>
   <si>
-    <t>126900976</t>
+    <t>60494377</t>
   </si>
   <si>
     <t>3746847</t>
@@ -2610,7 +2610,7 @@
     <t>ovarian cycle</t>
   </si>
   <si>
-    <t>151338702</t>
+    <t>84962967</t>
   </si>
   <si>
     <t>3777958</t>
@@ -2619,7 +2619,7 @@
     <t>estrus suppression</t>
   </si>
   <si>
-    <t>127043765</t>
+    <t>60644989</t>
   </si>
   <si>
     <t>3054782</t>
@@ -2628,7 +2628,7 @@
     <t>pituitary downregulation</t>
   </si>
   <si>
-    <t>130810399</t>
+    <t>64407014</t>
   </si>
 </sst>
 </file>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.056950092315674</v>
+        <v>7.016687870025635</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.016687870025635</v>
+        <v>6.745456218719482</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.745430946350098</v>
+        <v>6.669549465179443</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -2842,16 +2842,28 @@
       <c r="I4" t="s">
         <v>39</v>
       </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.669488906860352</v>
+        <v>6.59016752243042</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -2866,33 +2878,33 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
         <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.59016752243042</v>
+        <v>6.53948450088501</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -2907,27 +2919,15 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" t="s">
         <v>51</v>
-      </c>
-      <c r="M6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.53948450088501</v>
+        <v>6.5043535232543945</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -2951,18 +2951,36 @@
         <v>54</v>
       </c>
       <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
         <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.5043535232543945</v>
+        <v>6.490668296813965</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -2977,68 +2995,80 @@
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
-      </c>
-      <c r="N8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.490668296813965</v>
+        <v>6.484662055969238</v>
       </c>
       <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
         <v>64</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
         <v>65</v>
       </c>
-      <c r="I9" t="s">
-        <v>55</v>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>70</v>
+      </c>
+      <c r="R9" t="s">
+        <v>71</v>
+      </c>
+      <c r="S9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.485080718994141</v>
+        <v>6.4737324714660645</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -3053,45 +3083,21 @@
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" t="s">
-        <v>71</v>
-      </c>
-      <c r="O10" t="s">
-        <v>72</v>
-      </c>
-      <c r="P10" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" t="s">
-        <v>75</v>
-      </c>
-      <c r="S10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.4737324714660645</v>
+        <v>6.457547187805176</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -3115,18 +3121,12 @@
         <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" t="s">
         <v>79</v>
-      </c>
-      <c r="K11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.454814910888672</v>
+        <v>6.454665660858154</v>
       </c>
       <c r="B12" t="s">
         <v>80</v>
@@ -3150,12 +3150,12 @@
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.42941951751709</v>
+        <v>6.429630756378174</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -3185,13 +3185,13 @@
         <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
       </c>
       <c r="M13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N13" t="s">
         <v>89</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.389261245727539</v>
+        <v>6.388449192047119</v>
       </c>
       <c r="B14" t="s">
         <v>91</v>
@@ -3226,18 +3226,18 @@
         <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="J14" t="s">
         <v>94</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.38728666305542</v>
+        <v>6.387344837188721</v>
       </c>
       <c r="B15" t="s">
         <v>95</v>
@@ -3261,37 +3261,37 @@
         <v>97</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
         <v>98</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L15" t="s">
         <v>99</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N15" t="s">
         <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P15" t="s">
         <v>101</v>
       </c>
       <c r="Q15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R15" t="s">
         <v>102</v>
       </c>
       <c r="S15" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -3320,7 +3320,7 @@
         <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -3332,12 +3332,12 @@
         <v>108</v>
       </c>
       <c r="M16" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.302149772644043</v>
+        <v>6.302291393280029</v>
       </c>
       <c r="B17" t="s">
         <v>109</v>
@@ -3361,13 +3361,13 @@
         <v>111</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J17" t="s">
         <v>112</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -3396,12 +3396,12 @@
         <v>115</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.2047438621521</v>
+        <v>6.204477787017822</v>
       </c>
       <c r="B19" t="s">
         <v>116</v>
@@ -3425,7 +3425,7 @@
         <v>118</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
@@ -3454,7 +3454,7 @@
         <v>121</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -3483,7 +3483,7 @@
         <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -3512,7 +3512,7 @@
         <v>127</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -3541,12 +3541,12 @@
         <v>130</v>
       </c>
       <c r="I23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.144975662231445</v>
+        <v>6.145687103271484</v>
       </c>
       <c r="B24" t="s">
         <v>131</v>
@@ -3570,12 +3570,12 @@
         <v>133</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.090082168579102</v>
+        <v>6.091579914093018</v>
       </c>
       <c r="B25" t="s">
         <v>134</v>
@@ -3599,13 +3599,13 @@
         <v>136</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="J25" t="s">
         <v>137</v>
       </c>
       <c r="K25" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -3640,24 +3640,24 @@
         <v>142</v>
       </c>
       <c r="K26" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="L26" t="s">
         <v>143</v>
       </c>
       <c r="M26" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N26" t="s">
         <v>144</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.056127071380615</v>
+        <v>6.0562520027160645</v>
       </c>
       <c r="B27" t="s">
         <v>145</v>
@@ -3681,7 +3681,7 @@
         <v>147</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
@@ -3710,19 +3710,19 @@
         <v>150</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s">
         <v>151</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L28" t="s">
         <v>152</v>
       </c>
       <c r="M28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -3751,13 +3751,13 @@
         <v>155</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="J29" t="s">
         <v>156</v>
       </c>
       <c r="K29" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
@@ -3786,12 +3786,12 @@
         <v>159</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.944622993469238</v>
+        <v>5.944945335388184</v>
       </c>
       <c r="B31" t="s">
         <v>160</v>
@@ -3815,30 +3815,30 @@
         <v>162</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J31" t="s">
         <v>163</v>
       </c>
       <c r="K31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L31" t="s">
         <v>164</v>
       </c>
       <c r="M31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N31" t="s">
         <v>165</v>
       </c>
       <c r="O31" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.9008684158325195</v>
+        <v>5.901759624481201</v>
       </c>
       <c r="B32" t="s">
         <v>166</v>
@@ -3862,12 +3862,12 @@
         <v>168</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.867501735687256</v>
+        <v>5.9008684158325195</v>
       </c>
       <c r="B33" t="s">
         <v>169</v>
@@ -3891,88 +3891,88 @@
         <v>171</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
-      </c>
-      <c r="J33" t="s">
-        <v>172</v>
-      </c>
-      <c r="K33" t="s">
-        <v>46</v>
-      </c>
-      <c r="L33" t="s">
-        <v>173</v>
-      </c>
-      <c r="M33" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.842519283294678</v>
+        <v>5.867501735687256</v>
       </c>
       <c r="B34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
         <v>174</v>
       </c>
-      <c r="C34" t="s">
+      <c r="I34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" t="s">
         <v>175</v>
       </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="K34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" t="s">
         <v>176</v>
       </c>
-      <c r="I34" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K34" t="s">
-        <v>55</v>
+      <c r="M34" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.838006019592285</v>
+        <v>5.841906547546387</v>
       </c>
       <c r="B35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" t="s">
         <v>178</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
         <v>179</v>
       </c>
-      <c r="D35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" t="s">
         <v>180</v>
       </c>
-      <c r="I35" t="s">
-        <v>39</v>
+      <c r="K35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.831984043121338</v>
+        <v>5.8371806144714355</v>
       </c>
       <c r="B36" t="s">
         <v>181</v>
@@ -3996,12 +3996,12 @@
         <v>183</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.77604866027832</v>
+        <v>5.831565856933594</v>
       </c>
       <c r="B37" t="s">
         <v>184</v>
@@ -4025,59 +4025,59 @@
         <v>186</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
-      </c>
-      <c r="J37" t="s">
-        <v>187</v>
-      </c>
-      <c r="K37" t="s">
-        <v>72</v>
-      </c>
-      <c r="L37" t="s">
-        <v>188</v>
-      </c>
-      <c r="M37" t="s">
-        <v>39</v>
-      </c>
-      <c r="N37" t="s">
-        <v>189</v>
-      </c>
-      <c r="O37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.706557273864746</v>
+        <v>5.775810718536377</v>
       </c>
       <c r="B38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>189</v>
+      </c>
+      <c r="I38" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" t="s">
         <v>190</v>
       </c>
-      <c r="C38" t="s">
+      <c r="K38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" t="s">
         <v>191</v>
       </c>
-      <c r="D38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="M38" t="s">
+        <v>35</v>
+      </c>
+      <c r="N38" t="s">
         <v>192</v>
       </c>
-      <c r="I38" t="s">
-        <v>55</v>
+      <c r="O38" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5.6981024742126465</v>
+        <v>5.706557273864746</v>
       </c>
       <c r="B39" t="s">
         <v>193</v>
@@ -4101,47 +4101,47 @@
         <v>195</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
-      </c>
-      <c r="J39" t="s">
-        <v>196</v>
-      </c>
-      <c r="K39" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.695247173309326</v>
+        <v>5.697532653808594</v>
       </c>
       <c r="B40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" t="s">
         <v>197</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
         <v>198</v>
       </c>
-      <c r="D40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" t="s">
         <v>199</v>
       </c>
-      <c r="I40" t="s">
-        <v>55</v>
+      <c r="K40" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.594813346862793</v>
+        <v>5.597692012786865</v>
       </c>
       <c r="B41" t="s">
         <v>200</v>
@@ -4165,7 +4165,7 @@
         <v>202</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
@@ -4194,7 +4194,7 @@
         <v>205</v>
       </c>
       <c r="I42" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
@@ -4223,7 +4223,7 @@
         <v>208</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
@@ -4252,7 +4252,7 @@
         <v>211</v>
       </c>
       <c r="I44" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="J44" t="s">
         <v>212</v>
@@ -4264,7 +4264,7 @@
         <v>213</v>
       </c>
       <c r="M44" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
@@ -4293,12 +4293,12 @@
         <v>216</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.424103736877441</v>
+        <v>5.424638271331787</v>
       </c>
       <c r="B46" t="s">
         <v>217</v>
@@ -4328,19 +4328,19 @@
         <v>220</v>
       </c>
       <c r="K46" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="L46" t="s">
         <v>221</v>
       </c>
       <c r="M46" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="N46" t="s">
         <v>222</v>
       </c>
       <c r="O46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47">
@@ -4369,13 +4369,13 @@
         <v>225</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="J47" t="s">
         <v>226</v>
       </c>
       <c r="K47" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48">
@@ -4404,25 +4404,25 @@
         <v>229</v>
       </c>
       <c r="I48" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J48" t="s">
         <v>230</v>
       </c>
       <c r="K48" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="L48" t="s">
         <v>231</v>
       </c>
       <c r="M48" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N48" t="s">
         <v>232</v>
       </c>
       <c r="O48" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
@@ -4451,18 +4451,18 @@
         <v>235</v>
       </c>
       <c r="I49" t="s">
-        <v>72</v>
+        <v>236</v>
       </c>
       <c r="J49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K49" t="s">
-        <v>237</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.333433151245117</v>
+        <v>5.331451416015625</v>
       </c>
       <c r="B50" t="s">
         <v>238</v>
@@ -4486,12 +4486,12 @@
         <v>240</v>
       </c>
       <c r="I50" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.319368362426758</v>
+        <v>5.320048809051514</v>
       </c>
       <c r="B51" t="s">
         <v>241</v>
@@ -4515,19 +4515,19 @@
         <v>243</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="J51" t="s">
         <v>244</v>
       </c>
       <c r="K51" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L51" t="s">
         <v>245</v>
       </c>
       <c r="M51" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52">
@@ -4556,12 +4556,12 @@
         <v>248</v>
       </c>
       <c r="I52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.178248882293701</v>
+        <v>5.177305698394775</v>
       </c>
       <c r="B53" t="s">
         <v>249</v>
@@ -4585,13 +4585,13 @@
         <v>251</v>
       </c>
       <c r="I53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J53" t="s">
         <v>252</v>
       </c>
       <c r="K53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54">
@@ -4620,7 +4620,7 @@
         <v>255</v>
       </c>
       <c r="I54" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
@@ -4649,13 +4649,13 @@
         <v>258</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J55" t="s">
         <v>259</v>
       </c>
       <c r="K55" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
@@ -4684,25 +4684,25 @@
         <v>260</v>
       </c>
       <c r="I56" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="J56" t="s">
         <v>261</v>
       </c>
       <c r="K56" t="s">
+        <v>262</v>
+      </c>
+      <c r="L56" t="s">
+        <v>263</v>
+      </c>
+      <c r="M56" t="s">
         <v>141</v>
-      </c>
-      <c r="L56" t="s">
-        <v>262</v>
-      </c>
-      <c r="M56" t="s">
-        <v>263</v>
       </c>
       <c r="N56" t="s">
         <v>264</v>
       </c>
       <c r="O56" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57">
@@ -4731,12 +4731,12 @@
         <v>267</v>
       </c>
       <c r="I57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.892945766448975</v>
+        <v>4.864795684814453</v>
       </c>
       <c r="B58" t="s">
         <v>268</v>
@@ -4760,7 +4760,7 @@
         <v>270</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59">
@@ -4789,7 +4789,7 @@
         <v>273</v>
       </c>
       <c r="I59" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60">
@@ -4824,30 +4824,30 @@
         <v>277</v>
       </c>
       <c r="K60" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="L60" t="s">
         <v>278</v>
       </c>
       <c r="M60" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N60" t="s">
         <v>279</v>
       </c>
       <c r="O60" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="P60" t="s">
         <v>280</v>
       </c>
       <c r="Q60" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4.395361423492432</v>
+        <v>4.401038646697998</v>
       </c>
       <c r="B61" t="s">
         <v>281</v>
@@ -4871,7 +4871,7 @@
         <v>283</v>
       </c>
       <c r="I61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62">
@@ -4900,7 +4900,7 @@
         <v>286</v>
       </c>
       <c r="I62" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
@@ -4958,7 +4958,7 @@
         <v>292</v>
       </c>
       <c r="I64" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65">
@@ -5196,13 +5196,13 @@
         <v>318</v>
       </c>
       <c r="I72" t="s">
-        <v>141</v>
+        <v>296</v>
       </c>
       <c r="J72" t="s">
         <v>319</v>
       </c>
       <c r="K72" t="s">
-        <v>296</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73">
@@ -5390,7 +5390,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.121916770935059</v>
+        <v>7.12160587310791</v>
       </c>
       <c r="B3" t="s">
         <v>333</v>
@@ -5501,13 +5501,13 @@
         <v>347</v>
       </c>
       <c r="I6" t="s">
-        <v>344</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
         <v>348</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7">
@@ -5718,7 +5718,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.677112102508545</v>
+        <v>6.677709102630615</v>
       </c>
       <c r="B2" t="s">
         <v>361</v>
@@ -5742,12 +5742,12 @@
         <v>364</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.33422327041626</v>
+        <v>6.33658504486084</v>
       </c>
       <c r="B3" t="s">
         <v>365</v>
@@ -5771,12 +5771,12 @@
         <v>367</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.3147149085998535</v>
+        <v>6.315264701843262</v>
       </c>
       <c r="B4" t="s">
         <v>368</v>
@@ -5800,12 +5800,12 @@
         <v>370</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.094902515411377</v>
+        <v>6.095130443572998</v>
       </c>
       <c r="B5" t="s">
         <v>371</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.925999164581299</v>
+        <v>6.036077976226807</v>
       </c>
       <c r="B6" t="s">
         <v>374</v>
@@ -5858,12 +5858,12 @@
         <v>376</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.91680908203125</v>
+        <v>5.931188106536865</v>
       </c>
       <c r="B7" t="s">
         <v>377</v>
@@ -5887,12 +5887,12 @@
         <v>379</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.775334358215332</v>
+        <v>5.777710437774658</v>
       </c>
       <c r="B8" t="s">
         <v>380</v>
@@ -5916,12 +5916,12 @@
         <v>382</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.616981506347656</v>
+        <v>5.664997100830078</v>
       </c>
       <c r="B9" t="s">
         <v>383</v>
@@ -5945,12 +5945,12 @@
         <v>385</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.393069744110107</v>
+        <v>5.4424309730529785</v>
       </c>
       <c r="B10" t="s">
         <v>386</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.364581108093262</v>
+        <v>5.393069744110107</v>
       </c>
       <c r="B11" t="s">
         <v>389</v>
@@ -6008,7 +6008,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.238003253936768</v>
+        <v>5.238823413848877</v>
       </c>
       <c r="B12" t="s">
         <v>392</v>
@@ -6032,7 +6032,7 @@
         <v>394</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.115749359130859</v>
+        <v>7.11575984954834</v>
       </c>
       <c r="B2" t="s">
         <v>395</v>
@@ -6162,7 +6162,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.9605255126953125</v>
+        <v>6.961798667907715</v>
       </c>
       <c r="B3" t="s">
         <v>402</v>
@@ -6186,13 +6186,13 @@
         <v>404</v>
       </c>
       <c r="I3" t="s">
+        <v>340</v>
+      </c>
+      <c r="J3" t="s">
         <v>405</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>406</v>
-      </c>
-      <c r="K3" t="s">
-        <v>340</v>
       </c>
       <c r="L3" t="s">
         <v>407</v>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.957497596740723</v>
+        <v>6.957529067993164</v>
       </c>
       <c r="B4" t="s">
         <v>409</v>
@@ -6227,12 +6227,12 @@
         <v>411</v>
       </c>
       <c r="I4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.945525169372559</v>
+        <v>6.94525146484375</v>
       </c>
       <c r="B5" t="s">
         <v>412</v>
@@ -6256,30 +6256,30 @@
         <v>414</v>
       </c>
       <c r="I5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J5" t="s">
         <v>415</v>
       </c>
       <c r="K5" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="L5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O5" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.8661699295043945</v>
+        <v>6.865783214569092</v>
       </c>
       <c r="B6" t="s">
         <v>420</v>
@@ -6303,36 +6303,36 @@
         <v>422</v>
       </c>
       <c r="I6" t="s">
-        <v>340</v>
+        <v>401</v>
       </c>
       <c r="J6" t="s">
         <v>423</v>
       </c>
       <c r="K6" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="L6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q6" t="s">
-        <v>428</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.81250524520874</v>
+        <v>6.812045574188232</v>
       </c>
       <c r="B7" t="s">
         <v>429</v>
@@ -6356,18 +6356,18 @@
         <v>431</v>
       </c>
       <c r="I7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J7" t="s">
         <v>432</v>
       </c>
       <c r="K7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.803288459777832</v>
+        <v>6.802796840667725</v>
       </c>
       <c r="B8" t="s">
         <v>433</v>
@@ -6391,7 +6391,7 @@
         <v>435</v>
       </c>
       <c r="I8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J8" t="s">
         <v>436</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.782094955444336</v>
+        <v>6.781625747680664</v>
       </c>
       <c r="B9" t="s">
         <v>437</v>
@@ -6426,12 +6426,12 @@
         <v>439</v>
       </c>
       <c r="I9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.7359619140625</v>
+        <v>6.735988140106201</v>
       </c>
       <c r="B10" t="s">
         <v>440</v>
@@ -6455,7 +6455,7 @@
         <v>442</v>
       </c>
       <c r="I10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J10" t="s">
         <v>443</v>
@@ -6472,7 +6472,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.606706619262695</v>
+        <v>6.609961032867432</v>
       </c>
       <c r="B11" t="s">
         <v>445</v>
@@ -6525,13 +6525,13 @@
         <v>451</v>
       </c>
       <c r="I12" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J12" t="s">
         <v>452</v>
       </c>
       <c r="K12" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13">
@@ -6560,7 +6560,7 @@
         <v>455</v>
       </c>
       <c r="I13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14">
@@ -6589,7 +6589,7 @@
         <v>458</v>
       </c>
       <c r="I14" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15">
@@ -6618,18 +6618,18 @@
         <v>461</v>
       </c>
       <c r="I15" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="J15" t="s">
         <v>462</v>
       </c>
       <c r="K15" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.523062705993652</v>
+        <v>6.523020267486572</v>
       </c>
       <c r="B16" t="s">
         <v>463</v>
@@ -6653,13 +6653,13 @@
         <v>465</v>
       </c>
       <c r="I16" t="s">
-        <v>344</v>
+        <v>406</v>
       </c>
       <c r="J16" t="s">
         <v>466</v>
       </c>
       <c r="K16" t="s">
-        <v>408</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17">
@@ -6694,24 +6694,24 @@
         <v>470</v>
       </c>
       <c r="K17" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="L17" t="s">
         <v>471</v>
       </c>
       <c r="M17" t="s">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="N17" t="s">
         <v>472</v>
       </c>
       <c r="O17" t="s">
-        <v>332</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.405024528503418</v>
+        <v>6.406865119934082</v>
       </c>
       <c r="B18" t="s">
         <v>473</v>
@@ -6735,12 +6735,12 @@
         <v>475</v>
       </c>
       <c r="I18" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.404800891876221</v>
+        <v>6.404912948608398</v>
       </c>
       <c r="B19" t="s">
         <v>476</v>
@@ -6764,7 +6764,7 @@
         <v>478</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
@@ -6793,7 +6793,7 @@
         <v>481</v>
       </c>
       <c r="I20" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21">
@@ -6822,12 +6822,12 @@
         <v>484</v>
       </c>
       <c r="I21" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.33658504486084</v>
+        <v>6.3367156982421875</v>
       </c>
       <c r="B22" t="s">
         <v>485</v>
@@ -6851,7 +6851,7 @@
         <v>487</v>
       </c>
       <c r="I22" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23">
@@ -6880,7 +6880,7 @@
         <v>490</v>
       </c>
       <c r="I23" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24">
@@ -6909,12 +6909,12 @@
         <v>493</v>
       </c>
       <c r="I24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.242251873016357</v>
+        <v>6.248627185821533</v>
       </c>
       <c r="B25" t="s">
         <v>494</v>
@@ -6938,12 +6938,12 @@
         <v>496</v>
       </c>
       <c r="I25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.203501224517822</v>
+        <v>6.207218647003174</v>
       </c>
       <c r="B26" t="s">
         <v>497</v>
@@ -6967,7 +6967,7 @@
         <v>499</v>
       </c>
       <c r="I26" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27">
@@ -6996,12 +6996,12 @@
         <v>502</v>
       </c>
       <c r="I27" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6.192154884338379</v>
+        <v>6.19750452041626</v>
       </c>
       <c r="B28" t="s">
         <v>503</v>
@@ -7025,12 +7025,12 @@
         <v>505</v>
       </c>
       <c r="I28" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.15888786315918</v>
+        <v>6.159871578216553</v>
       </c>
       <c r="B29" t="s">
         <v>506</v>
@@ -7059,7 +7059,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6.132491111755371</v>
+        <v>6.136346817016602</v>
       </c>
       <c r="B30" t="s">
         <v>510</v>
@@ -7083,47 +7083,47 @@
         <v>512</v>
       </c>
       <c r="I30" t="s">
-        <v>340</v>
-      </c>
-      <c r="J30" t="s">
-        <v>513</v>
-      </c>
-      <c r="K30" t="s">
-        <v>399</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.127861022949219</v>
+        <v>6.132072448730469</v>
       </c>
       <c r="B31" t="s">
+        <v>513</v>
+      </c>
+      <c r="C31" t="s">
         <v>514</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>397</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
         <v>515</v>
       </c>
-      <c r="D31" t="s">
-        <v>397</v>
-      </c>
-      <c r="E31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
+        <v>401</v>
+      </c>
+      <c r="J31" t="s">
         <v>516</v>
       </c>
-      <c r="I31" t="s">
-        <v>509</v>
+      <c r="K31" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.094559669494629</v>
+        <v>6.094674110412598</v>
       </c>
       <c r="B32" t="s">
         <v>517</v>
@@ -7147,12 +7147,12 @@
         <v>519</v>
       </c>
       <c r="I32" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.070609092712402</v>
+        <v>6.075291156768799</v>
       </c>
       <c r="B33" t="s">
         <v>520</v>
@@ -7181,7 +7181,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.052366733551025</v>
+        <v>6.053246974945068</v>
       </c>
       <c r="B34" t="s">
         <v>523</v>
@@ -7205,47 +7205,47 @@
         <v>525</v>
       </c>
       <c r="I34" t="s">
-        <v>408</v>
-      </c>
-      <c r="J34" t="s">
-        <v>526</v>
-      </c>
-      <c r="K34" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6.046664714813232</v>
+        <v>6.052366733551025</v>
       </c>
       <c r="B35" t="s">
+        <v>526</v>
+      </c>
+      <c r="C35" t="s">
         <v>527</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>397</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
         <v>528</v>
       </c>
-      <c r="D35" t="s">
-        <v>397</v>
-      </c>
-      <c r="E35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
+        <v>401</v>
+      </c>
+      <c r="J35" t="s">
         <v>529</v>
       </c>
-      <c r="I35" t="s">
-        <v>399</v>
+      <c r="K35" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6.026297569274902</v>
+        <v>6.033193111419678</v>
       </c>
       <c r="B36" t="s">
         <v>530</v>
@@ -7275,18 +7275,18 @@
         <v>533</v>
       </c>
       <c r="K36" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="L36" t="s">
         <v>534</v>
       </c>
       <c r="M36" t="s">
-        <v>448</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.0191545486450195</v>
+        <v>6.020511150360107</v>
       </c>
       <c r="B37" t="s">
         <v>535</v>
@@ -7310,7 +7310,7 @@
         <v>537</v>
       </c>
       <c r="I37" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38">
@@ -7339,7 +7339,7 @@
         <v>540</v>
       </c>
       <c r="I38" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39">
@@ -7368,7 +7368,7 @@
         <v>543</v>
       </c>
       <c r="I39" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40">
@@ -7397,12 +7397,12 @@
         <v>546</v>
       </c>
       <c r="I40" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.935163497924805</v>
+        <v>5.934173107147217</v>
       </c>
       <c r="B41" t="s">
         <v>547</v>
@@ -7426,13 +7426,13 @@
         <v>549</v>
       </c>
       <c r="I41" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J41" t="s">
         <v>550</v>
       </c>
       <c r="K41" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42">
@@ -7461,18 +7461,18 @@
         <v>553</v>
       </c>
       <c r="I42" t="s">
-        <v>408</v>
+        <v>340</v>
       </c>
       <c r="J42" t="s">
         <v>554</v>
       </c>
       <c r="K42" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.920917510986328</v>
+        <v>5.922787666320801</v>
       </c>
       <c r="B43" t="s">
         <v>555</v>
@@ -7496,7 +7496,7 @@
         <v>557</v>
       </c>
       <c r="I43" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44">
@@ -7525,13 +7525,13 @@
         <v>560</v>
       </c>
       <c r="I44" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="J44" t="s">
         <v>561</v>
       </c>
       <c r="K44" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45">
@@ -7560,7 +7560,7 @@
         <v>564</v>
       </c>
       <c r="I45" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46">
@@ -7618,18 +7618,18 @@
         <v>570</v>
       </c>
       <c r="I47" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J47" t="s">
         <v>571</v>
       </c>
       <c r="K47" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.8183913230896</v>
+        <v>5.818607330322266</v>
       </c>
       <c r="B48" t="s">
         <v>572</v>
@@ -7658,7 +7658,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.804804801940918</v>
+        <v>5.81121301651001</v>
       </c>
       <c r="B49" t="s">
         <v>575</v>
@@ -7682,12 +7682,12 @@
         <v>577</v>
       </c>
       <c r="I49" t="s">
-        <v>401</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.799880027770996</v>
+        <v>5.805027484893799</v>
       </c>
       <c r="B50" t="s">
         <v>578</v>
@@ -7711,54 +7711,54 @@
         <v>580</v>
       </c>
       <c r="I50" t="s">
-        <v>448</v>
-      </c>
-      <c r="J50" t="s">
-        <v>581</v>
-      </c>
-      <c r="K50" t="s">
         <v>399</v>
-      </c>
-      <c r="L50" t="s">
-        <v>582</v>
-      </c>
-      <c r="M50" t="s">
-        <v>340</v>
-      </c>
-      <c r="N50" t="s">
-        <v>583</v>
-      </c>
-      <c r="O50" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.798752784729004</v>
+        <v>5.8005547523498535</v>
       </c>
       <c r="B51" t="s">
+        <v>581</v>
+      </c>
+      <c r="C51" t="s">
+        <v>582</v>
+      </c>
+      <c r="D51" t="s">
+        <v>397</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>583</v>
+      </c>
+      <c r="I51" t="s">
+        <v>340</v>
+      </c>
+      <c r="J51" t="s">
         <v>584</v>
       </c>
-      <c r="C51" t="s">
+      <c r="K51" t="s">
+        <v>406</v>
+      </c>
+      <c r="L51" t="s">
         <v>585</v>
       </c>
-      <c r="D51" t="s">
-        <v>397</v>
-      </c>
-      <c r="E51" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="M51" t="s">
+        <v>448</v>
+      </c>
+      <c r="N51" t="s">
         <v>586</v>
       </c>
-      <c r="I51" t="s">
-        <v>509</v>
+      <c r="O51" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="52">
@@ -7787,7 +7787,7 @@
         <v>589</v>
       </c>
       <c r="I52" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53">
@@ -7822,13 +7822,13 @@
         <v>593</v>
       </c>
       <c r="K53" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L53" t="s">
         <v>594</v>
       </c>
       <c r="M53" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54">
@@ -7857,12 +7857,12 @@
         <v>597</v>
       </c>
       <c r="I54" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.7533464431762695</v>
+        <v>5.767400741577148</v>
       </c>
       <c r="B55" t="s">
         <v>598</v>
@@ -7891,7 +7891,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.751588344573975</v>
+        <v>5.7656989097595215</v>
       </c>
       <c r="B56" t="s">
         <v>601</v>
@@ -7920,7 +7920,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.750833034515381</v>
+        <v>5.764967918395996</v>
       </c>
       <c r="B57" t="s">
         <v>604</v>
@@ -8002,7 +8002,7 @@
         <v>612</v>
       </c>
       <c r="I59" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60">
@@ -8031,7 +8031,7 @@
         <v>615</v>
       </c>
       <c r="I60" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61">
@@ -8060,12 +8060,12 @@
         <v>618</v>
       </c>
       <c r="I61" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.681569576263428</v>
+        <v>5.682455539703369</v>
       </c>
       <c r="B62" t="s">
         <v>619</v>
@@ -8089,12 +8089,12 @@
         <v>621</v>
       </c>
       <c r="I62" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.660676002502441</v>
+        <v>5.67741060256958</v>
       </c>
       <c r="B63" t="s">
         <v>622</v>
@@ -8118,7 +8118,7 @@
         <v>624</v>
       </c>
       <c r="I63" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64">
@@ -8147,12 +8147,12 @@
         <v>627</v>
       </c>
       <c r="I64" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.606917381286621</v>
+        <v>5.611457824707031</v>
       </c>
       <c r="B65" t="s">
         <v>628</v>
@@ -8176,13 +8176,13 @@
         <v>630</v>
       </c>
       <c r="I65" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J65" t="s">
         <v>631</v>
       </c>
       <c r="K65" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66">
@@ -8211,25 +8211,25 @@
         <v>634</v>
       </c>
       <c r="I66" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="J66" t="s">
         <v>635</v>
       </c>
       <c r="K66" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="L66" t="s">
         <v>636</v>
       </c>
       <c r="M66" t="s">
-        <v>408</v>
+        <v>340</v>
       </c>
       <c r="N66" t="s">
         <v>637</v>
       </c>
       <c r="O66" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67">
@@ -8258,7 +8258,7 @@
         <v>640</v>
       </c>
       <c r="I67" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="68">
@@ -8292,7 +8292,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5.538211822509766</v>
+        <v>5.543525695800781</v>
       </c>
       <c r="B69" t="s">
         <v>644</v>
@@ -8316,12 +8316,12 @@
         <v>646</v>
       </c>
       <c r="I69" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5.535737037658691</v>
+        <v>5.538211822509766</v>
       </c>
       <c r="B70" t="s">
         <v>647</v>
@@ -8345,7 +8345,7 @@
         <v>649</v>
       </c>
       <c r="I70" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71">
@@ -8374,12 +8374,12 @@
         <v>652</v>
       </c>
       <c r="I71" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5.514547824859619</v>
+        <v>5.51714563369751</v>
       </c>
       <c r="B72" t="s">
         <v>653</v>
@@ -8432,7 +8432,7 @@
         <v>658</v>
       </c>
       <c r="I73" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="74">
@@ -8461,7 +8461,7 @@
         <v>661</v>
       </c>
       <c r="I74" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75">
@@ -8490,7 +8490,7 @@
         <v>664</v>
       </c>
       <c r="I75" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76">
@@ -8519,12 +8519,12 @@
         <v>667</v>
       </c>
       <c r="I76" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>5.441404342651367</v>
+        <v>5.44752836227417</v>
       </c>
       <c r="B77" t="s">
         <v>668</v>
@@ -8577,7 +8577,7 @@
         <v>673</v>
       </c>
       <c r="I78" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="79">
@@ -8606,7 +8606,7 @@
         <v>676</v>
       </c>
       <c r="I79" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="80">
@@ -8635,7 +8635,7 @@
         <v>679</v>
       </c>
       <c r="I80" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81">
@@ -8722,12 +8722,12 @@
         <v>688</v>
       </c>
       <c r="I83" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5.371880054473877</v>
+        <v>5.3924946784973145</v>
       </c>
       <c r="B84" t="s">
         <v>689</v>
@@ -8753,45 +8753,45 @@
       <c r="I84" t="s">
         <v>408</v>
       </c>
-      <c r="J84" t="s">
-        <v>692</v>
-      </c>
-      <c r="K84" t="s">
-        <v>399</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>5.356532573699951</v>
+        <v>5.371880054473877</v>
       </c>
       <c r="B85" t="s">
+        <v>692</v>
+      </c>
+      <c r="C85" t="s">
         <v>693</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>397</v>
+      </c>
+      <c r="E85" t="s">
+        <v>28</v>
+      </c>
+      <c r="F85" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s">
         <v>694</v>
       </c>
-      <c r="D85" t="s">
-        <v>397</v>
-      </c>
-      <c r="E85" t="s">
-        <v>28</v>
-      </c>
-      <c r="F85" t="s">
-        <v>29</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
+        <v>406</v>
+      </c>
+      <c r="J85" t="s">
         <v>695</v>
       </c>
-      <c r="I85" t="s">
-        <v>405</v>
+      <c r="K85" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>5.34577751159668</v>
+        <v>5.348331928253174</v>
       </c>
       <c r="B86" t="s">
         <v>696</v>
@@ -8815,13 +8815,13 @@
         <v>698</v>
       </c>
       <c r="I86" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J86" t="s">
         <v>699</v>
       </c>
       <c r="K86" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="87">
@@ -8850,7 +8850,7 @@
         <v>702</v>
       </c>
       <c r="I87" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="88">
@@ -8908,7 +8908,7 @@
         <v>708</v>
       </c>
       <c r="I89" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="90">
@@ -8937,13 +8937,13 @@
         <v>711</v>
       </c>
       <c r="I90" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="J90" t="s">
         <v>712</v>
       </c>
       <c r="K90" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91">
@@ -8972,7 +8972,7 @@
         <v>715</v>
       </c>
       <c r="I91" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="92">
@@ -9001,7 +9001,7 @@
         <v>718</v>
       </c>
       <c r="I92" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93">
@@ -9030,7 +9030,7 @@
         <v>721</v>
       </c>
       <c r="I93" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="94">
@@ -9059,7 +9059,7 @@
         <v>724</v>
       </c>
       <c r="I94" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95">
@@ -9088,7 +9088,7 @@
         <v>727</v>
       </c>
       <c r="I95" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="96">
@@ -9146,7 +9146,7 @@
         <v>733</v>
       </c>
       <c r="I97" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="98">
@@ -9175,7 +9175,7 @@
         <v>736</v>
       </c>
       <c r="I98" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="99">
@@ -9204,13 +9204,13 @@
         <v>739</v>
       </c>
       <c r="I99" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J99" t="s">
         <v>740</v>
       </c>
       <c r="K99" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="100">
@@ -9268,7 +9268,7 @@
         <v>746</v>
       </c>
       <c r="I101" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102">
@@ -9297,7 +9297,7 @@
         <v>749</v>
       </c>
       <c r="I102" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103">
@@ -9355,7 +9355,7 @@
         <v>755</v>
       </c>
       <c r="I104" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="105">
@@ -9413,7 +9413,7 @@
         <v>761</v>
       </c>
       <c r="I106" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="107">
@@ -9442,13 +9442,13 @@
         <v>764</v>
       </c>
       <c r="I107" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J107" t="s">
         <v>765</v>
       </c>
       <c r="K107" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="108">
@@ -9477,7 +9477,7 @@
         <v>768</v>
       </c>
       <c r="I108" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="109">
@@ -9506,7 +9506,7 @@
         <v>771</v>
       </c>
       <c r="I109" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110">
@@ -9535,7 +9535,7 @@
         <v>774</v>
       </c>
       <c r="I110" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="111">
@@ -9564,7 +9564,7 @@
         <v>777</v>
       </c>
       <c r="I111" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112">
@@ -9593,7 +9593,7 @@
         <v>780</v>
       </c>
       <c r="I112" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="113">
@@ -9622,7 +9622,7 @@
         <v>783</v>
       </c>
       <c r="I113" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114">
@@ -9651,7 +9651,7 @@
         <v>786</v>
       </c>
       <c r="I114" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="115">
@@ -9680,7 +9680,7 @@
         <v>789</v>
       </c>
       <c r="I115" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="116">
@@ -9709,7 +9709,7 @@
         <v>792</v>
       </c>
       <c r="I116" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="117">
@@ -9796,7 +9796,7 @@
         <v>801</v>
       </c>
       <c r="I119" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="120">
@@ -9825,7 +9825,7 @@
         <v>804</v>
       </c>
       <c r="I120" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J120" t="s">
         <v>805</v>
@@ -9860,7 +9860,7 @@
         <v>808</v>
       </c>
       <c r="I121" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122">
@@ -9889,7 +9889,7 @@
         <v>811</v>
       </c>
       <c r="I122" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -9984,7 +9984,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.883355140686035</v>
+        <v>6.991089344024658</v>
       </c>
       <c r="B2" t="s">
         <v>812</v>
@@ -10008,24 +10008,18 @@
         <v>815</v>
       </c>
       <c r="I2" t="s">
-        <v>401</v>
-      </c>
-      <c r="J2" t="s">
-        <v>816</v>
-      </c>
-      <c r="K2" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.63764762878418</v>
+        <v>6.895193099975586</v>
       </c>
       <c r="B3" t="s">
+        <v>816</v>
+      </c>
+      <c r="C3" t="s">
         <v>817</v>
-      </c>
-      <c r="C3" t="s">
-        <v>818</v>
       </c>
       <c r="D3" t="s">
         <v>814</v>
@@ -10040,15 +10034,21 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
+        <v>818</v>
+      </c>
+      <c r="I3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J3" t="s">
         <v>819</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.523828506469727</v>
+        <v>6.63754940032959</v>
       </c>
       <c r="B4" t="s">
         <v>820</v>
@@ -10130,13 +10130,13 @@
         <v>828</v>
       </c>
       <c r="I6" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="J6" t="s">
         <v>829</v>
       </c>
       <c r="K6" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7">
@@ -10171,7 +10171,7 @@
         <v>833</v>
       </c>
       <c r="K7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8">
@@ -10205,7 +10205,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.687734127044678</v>
+        <v>5.694960594177246</v>
       </c>
       <c r="B9" t="s">
         <v>837</v>
@@ -10234,7 +10234,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.683045387268066</v>
+        <v>5.682750701904297</v>
       </c>
       <c r="B10" t="s">
         <v>840</v>
@@ -10258,7 +10258,7 @@
         <v>842</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -10316,7 +10316,7 @@
         <v>848</v>
       </c>
       <c r="I12" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13">
@@ -10374,7 +10374,7 @@
         <v>854</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
         <v>855</v>
@@ -10438,7 +10438,7 @@
         <v>861</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
@@ -10467,7 +10467,7 @@
         <v>864</v>
       </c>
       <c r="I17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18">
@@ -10496,7 +10496,7 @@
         <v>867</v>
       </c>
       <c r="I18" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19">
@@ -10525,7 +10525,7 @@
         <v>870</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
